--- a/jupyter_pandas/cmed_final_v3.xlsx
+++ b/jupyter_pandas/cmed_final_v3.xlsx
@@ -5640,10 +5640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z506"/>
+  <dimension ref="A1:AC506"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:Y506"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5818,7 +5818,15 @@
         <v>1</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">AB2*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,6 +5907,14 @@
         <v>1</v>
       </c>
       <c r="Z3" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">AB3*90</f>
         <v>180</v>
       </c>
     </row>
@@ -5980,7 +5996,15 @@
         <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">AB4*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,7 +6085,15 @@
         <v>1</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">AB5*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +6174,15 @@
         <v>1</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">AB6*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,7 +6263,15 @@
         <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">AB7*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6352,15 @@
         <v>1</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">AB8*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,7 +6441,15 @@
         <v>1</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">AB9*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,6 +6532,14 @@
       <c r="Z10" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">AB10*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -6547,6 +6619,14 @@
         <v>1</v>
       </c>
       <c r="Z11" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">AB11*90</f>
         <v>180</v>
       </c>
     </row>
@@ -6628,7 +6708,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">AB12*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,6 +6797,14 @@
         <v>1</v>
       </c>
       <c r="Z13" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">AB13*90</f>
         <v>180</v>
       </c>
     </row>
@@ -6790,7 +6886,15 @@
         <v>1</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">AB14*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,7 +6975,15 @@
         <v>1</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <f aca="false">AB15*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,6 +7066,14 @@
       <c r="Z16" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <f aca="false">AB16*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -7033,7 +7153,15 @@
         <v>1</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <f aca="false">AB17*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,7 +7242,15 @@
         <v>1</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <f aca="false">AB18*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,7 +7331,15 @@
         <v>1</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">AB19*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,7 +7420,15 @@
         <v>1</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">AB20*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +7509,15 @@
         <v>1</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <f aca="false">AB21*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,7 +7598,15 @@
         <v>1</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">AB22*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,6 +7689,14 @@
       <c r="Z23" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">AB23*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -7600,7 +7776,15 @@
         <v>1</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">AB24*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,7 +7865,15 @@
         <v>1</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">AB25*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,6 +7956,14 @@
       <c r="Z26" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <f aca="false">AB26*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -7843,7 +8043,15 @@
         <v>1</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <f aca="false">AB27*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,7 +8132,15 @@
         <v>1</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <f aca="false">AB28*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,7 +8221,15 @@
         <v>1</v>
       </c>
       <c r="Z29" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">AB29*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,7 +8310,15 @@
         <v>1</v>
       </c>
       <c r="Z30" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">AB30*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8167,7 +8399,15 @@
         <v>1</v>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">AB31*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8248,7 +8488,15 @@
         <v>1</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">AB32*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,7 +8577,15 @@
         <v>1</v>
       </c>
       <c r="Z33" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">AB33*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,7 +8666,15 @@
         <v>1</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">AB34*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8491,6 +8755,14 @@
         <v>1</v>
       </c>
       <c r="Z35" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <f aca="false">AB35*90</f>
         <v>180</v>
       </c>
     </row>
@@ -8572,7 +8844,15 @@
         <v>1</v>
       </c>
       <c r="Z36" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <f aca="false">AB36*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,7 +8933,15 @@
         <v>1</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">AB37*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8734,6 +9022,14 @@
         <v>1</v>
       </c>
       <c r="Z38" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <f aca="false">AB38*90</f>
         <v>180</v>
       </c>
     </row>
@@ -8815,7 +9111,15 @@
         <v>1</v>
       </c>
       <c r="Z39" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <f aca="false">AB39*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,6 +9202,14 @@
       <c r="Z40" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB40" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">AB40*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -8979,6 +9291,14 @@
       <c r="Z41" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB41" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">AB41*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -9058,7 +9378,15 @@
         <v>1</v>
       </c>
       <c r="Z42" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">AB42*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,7 +9467,15 @@
         <v>1</v>
       </c>
       <c r="Z43" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">AB43*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9220,7 +9556,15 @@
         <v>1</v>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <f aca="false">AB44*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9301,7 +9645,15 @@
         <v>1</v>
       </c>
       <c r="Z45" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <f aca="false">AB45*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,7 +9734,15 @@
         <v>1</v>
       </c>
       <c r="Z46" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <f aca="false">AB46*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9463,6 +9823,14 @@
         <v>1</v>
       </c>
       <c r="Z47" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <f aca="false">AB47*90</f>
         <v>180</v>
       </c>
     </row>
@@ -9544,7 +9912,15 @@
         <v>1</v>
       </c>
       <c r="Z48" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <f aca="false">AB48*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9625,7 +10001,15 @@
         <v>1</v>
       </c>
       <c r="Z49" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <f aca="false">AB49*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9706,7 +10090,15 @@
         <v>1</v>
       </c>
       <c r="Z50" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <f aca="false">AB50*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,7 +10179,15 @@
         <v>1</v>
       </c>
       <c r="Z51" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <f aca="false">AB51*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9868,7 +10268,15 @@
         <v>1</v>
       </c>
       <c r="Z52" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <f aca="false">AB52*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9949,6 +10357,14 @@
         <v>1</v>
       </c>
       <c r="Z53" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC53" s="0" t="n">
+        <f aca="false">AB53*90</f>
         <v>180</v>
       </c>
     </row>
@@ -10030,7 +10446,15 @@
         <v>1</v>
       </c>
       <c r="Z54" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <f aca="false">AB54*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10111,7 +10535,15 @@
         <v>1</v>
       </c>
       <c r="Z55" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <f aca="false">AB55*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10192,7 +10624,15 @@
         <v>1</v>
       </c>
       <c r="Z56" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <f aca="false">AB56*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10273,7 +10713,15 @@
         <v>1</v>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <f aca="false">AB57*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,6 +10804,14 @@
       <c r="Z58" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB58" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <f aca="false">AB58*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -10437,6 +10893,14 @@
       <c r="Z59" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB59" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <f aca="false">AB59*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -10516,6 +10980,14 @@
         <v>1</v>
       </c>
       <c r="Z60" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC60" s="0" t="n">
+        <f aca="false">AB60*90</f>
         <v>180</v>
       </c>
     </row>
@@ -10597,7 +11069,15 @@
         <v>1</v>
       </c>
       <c r="Z61" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC61" s="0" t="n">
+        <f aca="false">AB61*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,7 +11158,15 @@
         <v>1</v>
       </c>
       <c r="Z62" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <f aca="false">AB62*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,7 +11247,15 @@
         <v>1</v>
       </c>
       <c r="Z63" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <f aca="false">AB63*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10840,7 +11336,15 @@
         <v>1</v>
       </c>
       <c r="Z64" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <f aca="false">AB64*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10921,7 +11425,15 @@
         <v>1</v>
       </c>
       <c r="Z65" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <f aca="false">AB65*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11002,7 +11514,15 @@
         <v>1</v>
       </c>
       <c r="Z66" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <f aca="false">AB66*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,7 +11603,15 @@
         <v>1</v>
       </c>
       <c r="Z67" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <f aca="false">AB67*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11166,6 +11694,14 @@
       <c r="Z68" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB68" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC68" s="0" t="n">
+        <f aca="false">AB68*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -11245,7 +11781,15 @@
         <v>1</v>
       </c>
       <c r="Z69" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <f aca="false">AB69*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11326,7 +11870,15 @@
         <v>1</v>
       </c>
       <c r="Z70" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC70" s="0" t="n">
+        <f aca="false">AB70*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11407,7 +11959,15 @@
         <v>1</v>
       </c>
       <c r="Z71" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC71" s="0" t="n">
+        <f aca="false">AB71*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11488,7 +12048,15 @@
         <v>1</v>
       </c>
       <c r="Z72" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <f aca="false">AB72*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11569,7 +12137,15 @@
         <v>1</v>
       </c>
       <c r="Z73" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <f aca="false">AB73*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,6 +12228,14 @@
       <c r="Z74" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB74" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <f aca="false">AB74*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -11731,7 +12315,15 @@
         <v>1</v>
       </c>
       <c r="Z75" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <f aca="false">AB75*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11812,7 +12404,15 @@
         <v>1</v>
       </c>
       <c r="Z76" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC76" s="0" t="n">
+        <f aca="false">AB76*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11893,6 +12493,14 @@
         <v>1</v>
       </c>
       <c r="Z77" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC77" s="0" t="n">
+        <f aca="false">AB77*90</f>
         <v>180</v>
       </c>
     </row>
@@ -11974,7 +12582,15 @@
         <v>1</v>
       </c>
       <c r="Z78" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC78" s="0" t="n">
+        <f aca="false">AB78*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12055,7 +12671,15 @@
         <v>1</v>
       </c>
       <c r="Z79" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC79" s="0" t="n">
+        <f aca="false">AB79*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,6 +12760,14 @@
         <v>1</v>
       </c>
       <c r="Z80" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC80" s="0" t="n">
+        <f aca="false">AB80*90</f>
         <v>180</v>
       </c>
     </row>
@@ -12217,7 +12849,15 @@
         <v>1</v>
       </c>
       <c r="Z81" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC81" s="0" t="n">
+        <f aca="false">AB81*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12298,6 +12938,14 @@
         <v>1</v>
       </c>
       <c r="Z82" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC82" s="0" t="n">
+        <f aca="false">AB82*90</f>
         <v>180</v>
       </c>
     </row>
@@ -12379,7 +13027,15 @@
         <v>1</v>
       </c>
       <c r="Z83" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC83" s="0" t="n">
+        <f aca="false">AB83*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12460,7 +13116,15 @@
         <v>1</v>
       </c>
       <c r="Z84" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB84" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC84" s="0" t="n">
+        <f aca="false">AB84*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12543,6 +13207,14 @@
       <c r="Z85" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB85" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC85" s="0" t="n">
+        <f aca="false">AB85*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -12622,7 +13294,15 @@
         <v>1</v>
       </c>
       <c r="Z86" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB86" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC86" s="0" t="n">
+        <f aca="false">AB86*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12703,7 +13383,15 @@
         <v>1</v>
       </c>
       <c r="Z87" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB87" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC87" s="0" t="n">
+        <f aca="false">AB87*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12784,7 +13472,15 @@
         <v>1</v>
       </c>
       <c r="Z88" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB88" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <f aca="false">AB88*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12865,6 +13561,14 @@
         <v>1</v>
       </c>
       <c r="Z89" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB89" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC89" s="0" t="n">
+        <f aca="false">AB89*90</f>
         <v>180</v>
       </c>
     </row>
@@ -12948,6 +13652,14 @@
       <c r="Z90" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB90" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC90" s="0" t="n">
+        <f aca="false">AB90*90</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -13027,7 +13739,15 @@
         <v>1</v>
       </c>
       <c r="Z91" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB91" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC91" s="0" t="n">
+        <f aca="false">AB91*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13108,7 +13828,15 @@
         <v>1</v>
       </c>
       <c r="Z92" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB92" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC92" s="0" t="n">
+        <f aca="false">AB92*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13189,7 +13917,15 @@
         <v>1</v>
       </c>
       <c r="Z93" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB93" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC93" s="0" t="n">
+        <f aca="false">AB93*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13270,7 +14006,15 @@
         <v>1</v>
       </c>
       <c r="Z94" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB94" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC94" s="0" t="n">
+        <f aca="false">AB94*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,6 +14095,14 @@
         <v>1</v>
       </c>
       <c r="Z95" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB95" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC95" s="0" t="n">
+        <f aca="false">AB95*90</f>
         <v>180</v>
       </c>
     </row>
@@ -13432,7 +14184,15 @@
         <v>1</v>
       </c>
       <c r="Z96" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB96" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC96" s="0" t="n">
+        <f aca="false">AB96*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13513,7 +14273,15 @@
         <v>1</v>
       </c>
       <c r="Z97" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB97" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC97" s="0" t="n">
+        <f aca="false">AB97*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13594,7 +14362,15 @@
         <v>1</v>
       </c>
       <c r="Z98" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB98" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC98" s="0" t="n">
+        <f aca="false">AB98*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,7 +14451,15 @@
         <v>1</v>
       </c>
       <c r="Z99" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB99" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC99" s="0" t="n">
+        <f aca="false">AB99*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13756,7 +14540,15 @@
         <v>1</v>
       </c>
       <c r="Z100" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB100" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC100" s="0" t="n">
+        <f aca="false">AB100*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +14629,15 @@
         <v>1</v>
       </c>
       <c r="Z101" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB101" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC101" s="0" t="n">
+        <f aca="false">AB101*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13918,7 +14718,15 @@
         <v>1</v>
       </c>
       <c r="Z102" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB102" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC102" s="0" t="n">
+        <f aca="false">AB102*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13999,7 +14807,15 @@
         <v>1</v>
       </c>
       <c r="Z103" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB103" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC103" s="0" t="n">
+        <f aca="false">AB103*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14082,6 +14898,14 @@
       <c r="Z104" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB104" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC104" s="0" t="n">
+        <f aca="false">AB104*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -14161,7 +14985,15 @@
         <v>1</v>
       </c>
       <c r="Z105" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB105" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC105" s="0" t="n">
+        <f aca="false">AB105*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14242,7 +15074,15 @@
         <v>1</v>
       </c>
       <c r="Z106" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB106" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC106" s="0" t="n">
+        <f aca="false">AB106*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14323,7 +15163,15 @@
         <v>1</v>
       </c>
       <c r="Z107" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB107" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC107" s="0" t="n">
+        <f aca="false">AB107*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14404,7 +15252,15 @@
         <v>1</v>
       </c>
       <c r="Z108" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB108" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC108" s="0" t="n">
+        <f aca="false">AB108*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14485,7 +15341,15 @@
         <v>1</v>
       </c>
       <c r="Z109" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB109" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC109" s="0" t="n">
+        <f aca="false">AB109*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14568,6 +15432,14 @@
       <c r="Z110" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB110" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC110" s="0" t="n">
+        <f aca="false">AB110*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -14647,7 +15519,15 @@
         <v>1</v>
       </c>
       <c r="Z111" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB111" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC111" s="0" t="n">
+        <f aca="false">AB111*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14728,7 +15608,15 @@
         <v>1</v>
       </c>
       <c r="Z112" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB112" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC112" s="0" t="n">
+        <f aca="false">AB112*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14809,7 +15697,15 @@
         <v>1</v>
       </c>
       <c r="Z113" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB113" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC113" s="0" t="n">
+        <f aca="false">AB113*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,6 +15786,14 @@
         <v>1</v>
       </c>
       <c r="Z114" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB114" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC114" s="0" t="n">
+        <f aca="false">AB114*90</f>
         <v>180</v>
       </c>
     </row>
@@ -14971,7 +15875,15 @@
         <v>1</v>
       </c>
       <c r="Z115" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB115" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC115" s="0" t="n">
+        <f aca="false">AB115*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15052,7 +15964,15 @@
         <v>1</v>
       </c>
       <c r="Z116" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB116" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC116" s="0" t="n">
+        <f aca="false">AB116*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15135,6 +16055,14 @@
       <c r="Z117" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB117" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC117" s="0" t="n">
+        <f aca="false">AB117*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -15214,7 +16142,15 @@
         <v>1</v>
       </c>
       <c r="Z118" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB118" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC118" s="0" t="n">
+        <f aca="false">AB118*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15295,6 +16231,14 @@
         <v>1</v>
       </c>
       <c r="Z119" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB119" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC119" s="0" t="n">
+        <f aca="false">AB119*90</f>
         <v>180</v>
       </c>
     </row>
@@ -15376,6 +16320,14 @@
         <v>1</v>
       </c>
       <c r="Z120" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB120" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC120" s="0" t="n">
+        <f aca="false">AB120*90</f>
         <v>180</v>
       </c>
     </row>
@@ -15457,7 +16409,15 @@
         <v>1</v>
       </c>
       <c r="Z121" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB121" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC121" s="0" t="n">
+        <f aca="false">AB121*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15538,7 +16498,15 @@
         <v>1</v>
       </c>
       <c r="Z122" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB122" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC122" s="0" t="n">
+        <f aca="false">AB122*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15619,7 +16587,15 @@
         <v>1</v>
       </c>
       <c r="Z123" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB123" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC123" s="0" t="n">
+        <f aca="false">AB123*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15700,7 +16676,15 @@
         <v>1</v>
       </c>
       <c r="Z124" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB124" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC124" s="0" t="n">
+        <f aca="false">AB124*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15781,7 +16765,15 @@
         <v>1</v>
       </c>
       <c r="Z125" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB125" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC125" s="0" t="n">
+        <f aca="false">AB125*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15862,7 +16854,15 @@
         <v>1</v>
       </c>
       <c r="Z126" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB126" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC126" s="0" t="n">
+        <f aca="false">AB126*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15945,6 +16945,14 @@
       <c r="Z127" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB127" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC127" s="0" t="n">
+        <f aca="false">AB127*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -16024,7 +17032,15 @@
         <v>1</v>
       </c>
       <c r="Z128" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB128" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC128" s="0" t="n">
+        <f aca="false">AB128*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16105,7 +17121,15 @@
         <v>1</v>
       </c>
       <c r="Z129" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB129" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC129" s="0" t="n">
+        <f aca="false">AB129*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16188,6 +17212,14 @@
       <c r="Z130" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB130" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC130" s="0" t="n">
+        <f aca="false">AB130*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -16267,6 +17299,14 @@
         <v>1</v>
       </c>
       <c r="Z131" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB131" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC131" s="0" t="n">
+        <f aca="false">AB131*90</f>
         <v>180</v>
       </c>
     </row>
@@ -16348,7 +17388,15 @@
         <v>1</v>
       </c>
       <c r="Z132" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB132" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC132" s="0" t="n">
+        <f aca="false">AB132*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16429,7 +17477,15 @@
         <v>1</v>
       </c>
       <c r="Z133" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB133" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC133" s="0" t="n">
+        <f aca="false">AB133*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16510,7 +17566,15 @@
         <v>1</v>
       </c>
       <c r="Z134" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB134" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC134" s="0" t="n">
+        <f aca="false">AB134*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16591,7 +17655,15 @@
         <v>1</v>
       </c>
       <c r="Z135" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB135" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC135" s="0" t="n">
+        <f aca="false">AB135*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16672,7 +17744,15 @@
         <v>1</v>
       </c>
       <c r="Z136" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB136" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC136" s="0" t="n">
+        <f aca="false">AB136*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16753,7 +17833,15 @@
         <v>1</v>
       </c>
       <c r="Z137" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB137" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC137" s="0" t="n">
+        <f aca="false">AB137*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16834,7 +17922,15 @@
         <v>1</v>
       </c>
       <c r="Z138" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB138" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC138" s="0" t="n">
+        <f aca="false">AB138*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16915,7 +18011,15 @@
         <v>1</v>
       </c>
       <c r="Z139" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB139" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC139" s="0" t="n">
+        <f aca="false">AB139*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16996,7 +18100,15 @@
         <v>1</v>
       </c>
       <c r="Z140" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB140" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC140" s="0" t="n">
+        <f aca="false">AB140*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17077,6 +18189,14 @@
         <v>1</v>
       </c>
       <c r="Z141" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB141" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC141" s="0" t="n">
+        <f aca="false">AB141*90</f>
         <v>180</v>
       </c>
     </row>
@@ -17158,7 +18278,15 @@
         <v>1</v>
       </c>
       <c r="Z142" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB142" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC142" s="0" t="n">
+        <f aca="false">AB142*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17239,7 +18367,15 @@
         <v>1</v>
       </c>
       <c r="Z143" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB143" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC143" s="0" t="n">
+        <f aca="false">AB143*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17320,7 +18456,15 @@
         <v>1</v>
       </c>
       <c r="Z144" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB144" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC144" s="0" t="n">
+        <f aca="false">AB144*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17401,6 +18545,14 @@
         <v>1</v>
       </c>
       <c r="Z145" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB145" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC145" s="0" t="n">
+        <f aca="false">AB145*90</f>
         <v>180</v>
       </c>
     </row>
@@ -17482,7 +18634,15 @@
         <v>1</v>
       </c>
       <c r="Z146" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB146" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC146" s="0" t="n">
+        <f aca="false">AB146*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17563,7 +18723,15 @@
         <v>1</v>
       </c>
       <c r="Z147" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB147" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC147" s="0" t="n">
+        <f aca="false">AB147*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17644,7 +18812,15 @@
         <v>1</v>
       </c>
       <c r="Z148" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB148" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC148" s="0" t="n">
+        <f aca="false">AB148*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17725,7 +18901,15 @@
         <v>1</v>
       </c>
       <c r="Z149" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB149" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC149" s="0" t="n">
+        <f aca="false">AB149*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17806,7 +18990,15 @@
         <v>1</v>
       </c>
       <c r="Z150" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB150" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC150" s="0" t="n">
+        <f aca="false">AB150*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17887,7 +19079,15 @@
         <v>1</v>
       </c>
       <c r="Z151" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB151" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC151" s="0" t="n">
+        <f aca="false">AB151*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17968,7 +19168,15 @@
         <v>1</v>
       </c>
       <c r="Z152" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB152" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC152" s="0" t="n">
+        <f aca="false">AB152*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18049,7 +19257,15 @@
         <v>1</v>
       </c>
       <c r="Z153" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB153" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC153" s="0" t="n">
+        <f aca="false">AB153*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18130,6 +19346,14 @@
         <v>1</v>
       </c>
       <c r="Z154" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB154" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC154" s="0" t="n">
+        <f aca="false">AB154*90</f>
         <v>180</v>
       </c>
     </row>
@@ -18211,7 +19435,15 @@
         <v>1</v>
       </c>
       <c r="Z155" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB155" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC155" s="0" t="n">
+        <f aca="false">AB155*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18292,6 +19524,14 @@
         <v>1</v>
       </c>
       <c r="Z156" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB156" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC156" s="0" t="n">
+        <f aca="false">AB156*90</f>
         <v>180</v>
       </c>
     </row>
@@ -18373,7 +19613,15 @@
         <v>1</v>
       </c>
       <c r="Z157" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB157" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC157" s="0" t="n">
+        <f aca="false">AB157*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18454,7 +19702,15 @@
         <v>1</v>
       </c>
       <c r="Z158" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC158" s="0" t="n">
+        <f aca="false">AB158*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18535,7 +19791,15 @@
         <v>1</v>
       </c>
       <c r="Z159" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB159" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC159" s="0" t="n">
+        <f aca="false">AB159*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18616,7 +19880,15 @@
         <v>1</v>
       </c>
       <c r="Z160" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB160" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC160" s="0" t="n">
+        <f aca="false">AB160*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18697,7 +19969,15 @@
         <v>1</v>
       </c>
       <c r="Z161" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB161" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC161" s="0" t="n">
+        <f aca="false">AB161*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18778,7 +20058,15 @@
         <v>1</v>
       </c>
       <c r="Z162" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB162" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC162" s="0" t="n">
+        <f aca="false">AB162*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18859,7 +20147,15 @@
         <v>1</v>
       </c>
       <c r="Z163" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB163" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC163" s="0" t="n">
+        <f aca="false">AB163*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18940,7 +20236,15 @@
         <v>1</v>
       </c>
       <c r="Z164" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB164" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC164" s="0" t="n">
+        <f aca="false">AB164*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19021,6 +20325,14 @@
         <v>1</v>
       </c>
       <c r="Z165" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB165" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC165" s="0" t="n">
+        <f aca="false">AB165*90</f>
         <v>180</v>
       </c>
     </row>
@@ -19104,6 +20416,14 @@
       <c r="Z166" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB166" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC166" s="0" t="n">
+        <f aca="false">AB166*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
@@ -19183,7 +20503,15 @@
         <v>1</v>
       </c>
       <c r="Z167" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB167" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC167" s="0" t="n">
+        <f aca="false">AB167*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19264,7 +20592,15 @@
         <v>1</v>
       </c>
       <c r="Z168" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB168" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC168" s="0" t="n">
+        <f aca="false">AB168*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19347,6 +20683,14 @@
       <c r="Z169" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB169" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC169" s="0" t="n">
+        <f aca="false">AB169*90</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
@@ -19426,7 +20770,15 @@
         <v>1</v>
       </c>
       <c r="Z170" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB170" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC170" s="0" t="n">
+        <f aca="false">AB170*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19507,7 +20859,15 @@
         <v>1</v>
       </c>
       <c r="Z171" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB171" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC171" s="0" t="n">
+        <f aca="false">AB171*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19588,7 +20948,15 @@
         <v>1</v>
       </c>
       <c r="Z172" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB172" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC172" s="0" t="n">
+        <f aca="false">AB172*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19671,6 +21039,14 @@
       <c r="Z173" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB173" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC173" s="0" t="n">
+        <f aca="false">AB173*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
@@ -19750,7 +21126,15 @@
         <v>1</v>
       </c>
       <c r="Z174" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB174" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC174" s="0" t="n">
+        <f aca="false">AB174*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19833,6 +21217,14 @@
       <c r="Z175" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB175" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC175" s="0" t="n">
+        <f aca="false">AB175*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
@@ -19912,7 +21304,15 @@
         <v>1</v>
       </c>
       <c r="Z176" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB176" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC176" s="0" t="n">
+        <f aca="false">AB176*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19993,7 +21393,15 @@
         <v>1</v>
       </c>
       <c r="Z177" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB177" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC177" s="0" t="n">
+        <f aca="false">AB177*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20074,7 +21482,15 @@
         <v>1</v>
       </c>
       <c r="Z178" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB178" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC178" s="0" t="n">
+        <f aca="false">AB178*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20155,6 +21571,14 @@
         <v>1</v>
       </c>
       <c r="Z179" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB179" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC179" s="0" t="n">
+        <f aca="false">AB179*90</f>
         <v>180</v>
       </c>
     </row>
@@ -20236,6 +21660,14 @@
         <v>1</v>
       </c>
       <c r="Z180" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB180" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC180" s="0" t="n">
+        <f aca="false">AB180*90</f>
         <v>180</v>
       </c>
     </row>
@@ -20319,6 +21751,14 @@
       <c r="Z181" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB181" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC181" s="0" t="n">
+        <f aca="false">AB181*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
@@ -20398,7 +21838,15 @@
         <v>1</v>
       </c>
       <c r="Z182" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB182" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC182" s="0" t="n">
+        <f aca="false">AB182*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20479,6 +21927,14 @@
         <v>1</v>
       </c>
       <c r="Z183" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB183" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC183" s="0" t="n">
+        <f aca="false">AB183*90</f>
         <v>180</v>
       </c>
     </row>
@@ -20560,7 +22016,15 @@
         <v>1</v>
       </c>
       <c r="Z184" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB184" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC184" s="0" t="n">
+        <f aca="false">AB184*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20641,6 +22105,14 @@
         <v>1</v>
       </c>
       <c r="Z185" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB185" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC185" s="0" t="n">
+        <f aca="false">AB185*90</f>
         <v>180</v>
       </c>
     </row>
@@ -20722,7 +22194,15 @@
         <v>1</v>
       </c>
       <c r="Z186" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB186" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC186" s="0" t="n">
+        <f aca="false">AB186*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20803,7 +22283,15 @@
         <v>1</v>
       </c>
       <c r="Z187" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB187" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC187" s="0" t="n">
+        <f aca="false">AB187*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20884,7 +22372,15 @@
         <v>1</v>
       </c>
       <c r="Z188" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB188" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC188" s="0" t="n">
+        <f aca="false">AB188*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20967,6 +22463,14 @@
       <c r="Z189" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB189" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC189" s="0" t="n">
+        <f aca="false">AB189*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
@@ -21046,7 +22550,15 @@
         <v>1</v>
       </c>
       <c r="Z190" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB190" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC190" s="0" t="n">
+        <f aca="false">AB190*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21127,6 +22639,14 @@
         <v>1</v>
       </c>
       <c r="Z191" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB191" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC191" s="0" t="n">
+        <f aca="false">AB191*90</f>
         <v>180</v>
       </c>
     </row>
@@ -21208,7 +22728,15 @@
         <v>1</v>
       </c>
       <c r="Z192" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB192" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC192" s="0" t="n">
+        <f aca="false">AB192*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21291,6 +22819,14 @@
       <c r="Z193" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB193" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC193" s="0" t="n">
+        <f aca="false">AB193*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -21370,7 +22906,15 @@
         <v>1</v>
       </c>
       <c r="Z194" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB194" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC194" s="0" t="n">
+        <f aca="false">AB194*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21453,6 +22997,14 @@
       <c r="Z195" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB195" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC195" s="0" t="n">
+        <f aca="false">AB195*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
@@ -21532,7 +23084,15 @@
         <v>1</v>
       </c>
       <c r="Z196" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB196" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC196" s="0" t="n">
+        <f aca="false">AB196*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21615,6 +23175,14 @@
       <c r="Z197" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB197" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC197" s="0" t="n">
+        <f aca="false">AB197*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
@@ -21694,7 +23262,15 @@
         <v>1</v>
       </c>
       <c r="Z198" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB198" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC198" s="0" t="n">
+        <f aca="false">AB198*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21775,6 +23351,14 @@
         <v>1</v>
       </c>
       <c r="Z199" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB199" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC199" s="0" t="n">
+        <f aca="false">AB199*90</f>
         <v>180</v>
       </c>
     </row>
@@ -21856,7 +23440,15 @@
         <v>1</v>
       </c>
       <c r="Z200" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB200" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC200" s="0" t="n">
+        <f aca="false">AB200*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21937,7 +23529,15 @@
         <v>1</v>
       </c>
       <c r="Z201" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB201" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC201" s="0" t="n">
+        <f aca="false">AB201*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22020,6 +23620,14 @@
       <c r="Z202" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB202" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC202" s="0" t="n">
+        <f aca="false">AB202*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
@@ -22099,7 +23707,15 @@
         <v>1</v>
       </c>
       <c r="Z203" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB203" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC203" s="0" t="n">
+        <f aca="false">AB203*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22180,7 +23796,15 @@
         <v>1</v>
       </c>
       <c r="Z204" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB204" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC204" s="0" t="n">
+        <f aca="false">AB204*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22261,7 +23885,15 @@
         <v>1</v>
       </c>
       <c r="Z205" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB205" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC205" s="0" t="n">
+        <f aca="false">AB205*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22342,7 +23974,15 @@
         <v>1</v>
       </c>
       <c r="Z206" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB206" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC206" s="0" t="n">
+        <f aca="false">AB206*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22423,7 +24063,15 @@
         <v>1</v>
       </c>
       <c r="Z207" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB207" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC207" s="0" t="n">
+        <f aca="false">AB207*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22504,7 +24152,15 @@
         <v>1</v>
       </c>
       <c r="Z208" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB208" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC208" s="0" t="n">
+        <f aca="false">AB208*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22585,7 +24241,15 @@
         <v>1</v>
       </c>
       <c r="Z209" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB209" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC209" s="0" t="n">
+        <f aca="false">AB209*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22666,7 +24330,15 @@
         <v>1</v>
       </c>
       <c r="Z210" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB210" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC210" s="0" t="n">
+        <f aca="false">AB210*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22747,7 +24419,15 @@
         <v>1</v>
       </c>
       <c r="Z211" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB211" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC211" s="0" t="n">
+        <f aca="false">AB211*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22828,7 +24508,15 @@
         <v>1</v>
       </c>
       <c r="Z212" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB212" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC212" s="0" t="n">
+        <f aca="false">AB212*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22909,7 +24597,15 @@
         <v>1</v>
       </c>
       <c r="Z213" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB213" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC213" s="0" t="n">
+        <f aca="false">AB213*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22990,6 +24686,14 @@
         <v>1</v>
       </c>
       <c r="Z214" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB214" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC214" s="0" t="n">
+        <f aca="false">AB214*90</f>
         <v>180</v>
       </c>
     </row>
@@ -23073,6 +24777,14 @@
       <c r="Z215" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB215" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC215" s="0" t="n">
+        <f aca="false">AB215*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
@@ -23154,6 +24866,14 @@
       <c r="Z216" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB216" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC216" s="0" t="n">
+        <f aca="false">AB216*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
@@ -23233,7 +24953,15 @@
         <v>1</v>
       </c>
       <c r="Z217" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB217" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC217" s="0" t="n">
+        <f aca="false">AB217*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23314,7 +25042,15 @@
         <v>1</v>
       </c>
       <c r="Z218" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB218" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC218" s="0" t="n">
+        <f aca="false">AB218*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23395,7 +25131,15 @@
         <v>1</v>
       </c>
       <c r="Z219" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB219" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC219" s="0" t="n">
+        <f aca="false">AB219*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23478,6 +25222,14 @@
       <c r="Z220" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB220" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC220" s="0" t="n">
+        <f aca="false">AB220*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
@@ -23557,7 +25309,15 @@
         <v>1</v>
       </c>
       <c r="Z221" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB221" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC221" s="0" t="n">
+        <f aca="false">AB221*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23638,7 +25398,15 @@
         <v>1</v>
       </c>
       <c r="Z222" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB222" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC222" s="0" t="n">
+        <f aca="false">AB222*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23719,7 +25487,15 @@
         <v>1</v>
       </c>
       <c r="Z223" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB223" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC223" s="0" t="n">
+        <f aca="false">AB223*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23800,7 +25576,15 @@
         <v>1</v>
       </c>
       <c r="Z224" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB224" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC224" s="0" t="n">
+        <f aca="false">AB224*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23881,7 +25665,15 @@
         <v>1</v>
       </c>
       <c r="Z225" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB225" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC225" s="0" t="n">
+        <f aca="false">AB225*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23962,7 +25754,15 @@
         <v>1</v>
       </c>
       <c r="Z226" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB226" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC226" s="0" t="n">
+        <f aca="false">AB226*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24043,7 +25843,15 @@
         <v>1</v>
       </c>
       <c r="Z227" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB227" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC227" s="0" t="n">
+        <f aca="false">AB227*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24124,7 +25932,15 @@
         <v>1</v>
       </c>
       <c r="Z228" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB228" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC228" s="0" t="n">
+        <f aca="false">AB228*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24205,7 +26021,15 @@
         <v>1</v>
       </c>
       <c r="Z229" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB229" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC229" s="0" t="n">
+        <f aca="false">AB229*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24286,7 +26110,15 @@
         <v>1</v>
       </c>
       <c r="Z230" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB230" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC230" s="0" t="n">
+        <f aca="false">AB230*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24367,7 +26199,15 @@
         <v>1</v>
       </c>
       <c r="Z231" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB231" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC231" s="0" t="n">
+        <f aca="false">AB231*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24448,7 +26288,15 @@
         <v>1</v>
       </c>
       <c r="Z232" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB232" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC232" s="0" t="n">
+        <f aca="false">AB232*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24529,7 +26377,15 @@
         <v>1</v>
       </c>
       <c r="Z233" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB233" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC233" s="0" t="n">
+        <f aca="false">AB233*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24612,6 +26468,14 @@
       <c r="Z234" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB234" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC234" s="0" t="n">
+        <f aca="false">AB234*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
@@ -24691,7 +26555,15 @@
         <v>1</v>
       </c>
       <c r="Z235" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB235" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC235" s="0" t="n">
+        <f aca="false">AB235*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24772,6 +26644,14 @@
         <v>1</v>
       </c>
       <c r="Z236" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB236" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC236" s="0" t="n">
+        <f aca="false">AB236*90</f>
         <v>180</v>
       </c>
     </row>
@@ -24853,7 +26733,15 @@
         <v>1</v>
       </c>
       <c r="Z237" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB237" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC237" s="0" t="n">
+        <f aca="false">AB237*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24934,7 +26822,15 @@
         <v>1</v>
       </c>
       <c r="Z238" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB238" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC238" s="0" t="n">
+        <f aca="false">AB238*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25015,7 +26911,15 @@
         <v>1</v>
       </c>
       <c r="Z239" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB239" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC239" s="0" t="n">
+        <f aca="false">AB239*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25096,7 +27000,15 @@
         <v>1</v>
       </c>
       <c r="Z240" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB240" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC240" s="0" t="n">
+        <f aca="false">AB240*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25177,7 +27089,15 @@
         <v>1</v>
       </c>
       <c r="Z241" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB241" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC241" s="0" t="n">
+        <f aca="false">AB241*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25258,7 +27178,15 @@
         <v>1</v>
       </c>
       <c r="Z242" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB242" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC242" s="0" t="n">
+        <f aca="false">AB242*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25339,7 +27267,15 @@
         <v>1</v>
       </c>
       <c r="Z243" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB243" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC243" s="0" t="n">
+        <f aca="false">AB243*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25420,7 +27356,15 @@
         <v>1</v>
       </c>
       <c r="Z244" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB244" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC244" s="0" t="n">
+        <f aca="false">AB244*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25501,7 +27445,15 @@
         <v>1</v>
       </c>
       <c r="Z245" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB245" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC245" s="0" t="n">
+        <f aca="false">AB245*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25582,7 +27534,15 @@
         <v>1</v>
       </c>
       <c r="Z246" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB246" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC246" s="0" t="n">
+        <f aca="false">AB246*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25663,6 +27623,14 @@
         <v>1</v>
       </c>
       <c r="Z247" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB247" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC247" s="0" t="n">
+        <f aca="false">AB247*90</f>
         <v>180</v>
       </c>
     </row>
@@ -25744,7 +27712,15 @@
         <v>1</v>
       </c>
       <c r="Z248" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB248" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC248" s="0" t="n">
+        <f aca="false">AB248*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25825,7 +27801,15 @@
         <v>1</v>
       </c>
       <c r="Z249" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB249" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC249" s="0" t="n">
+        <f aca="false">AB249*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25908,6 +27892,14 @@
       <c r="Z250" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB250" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC250" s="0" t="n">
+        <f aca="false">AB250*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
@@ -25987,7 +27979,15 @@
         <v>1</v>
       </c>
       <c r="Z251" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB251" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC251" s="0" t="n">
+        <f aca="false">AB251*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26068,7 +28068,15 @@
         <v>1</v>
       </c>
       <c r="Z252" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB252" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC252" s="0" t="n">
+        <f aca="false">AB252*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26149,7 +28157,15 @@
         <v>1</v>
       </c>
       <c r="Z253" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB253" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC253" s="0" t="n">
+        <f aca="false">AB253*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26230,7 +28246,15 @@
         <v>1</v>
       </c>
       <c r="Z254" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB254" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC254" s="0" t="n">
+        <f aca="false">AB254*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26311,7 +28335,15 @@
         <v>1</v>
       </c>
       <c r="Z255" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB255" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC255" s="0" t="n">
+        <f aca="false">AB255*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26394,6 +28426,14 @@
       <c r="Z256" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB256" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC256" s="0" t="n">
+        <f aca="false">AB256*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
@@ -26473,7 +28513,15 @@
         <v>1</v>
       </c>
       <c r="Z257" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB257" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC257" s="0" t="n">
+        <f aca="false">AB257*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26554,7 +28602,15 @@
         <v>1</v>
       </c>
       <c r="Z258" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB258" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC258" s="0" t="n">
+        <f aca="false">AB258*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26637,6 +28693,14 @@
       <c r="Z259" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB259" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC259" s="0" t="n">
+        <f aca="false">AB259*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
@@ -26716,7 +28780,15 @@
         <v>1</v>
       </c>
       <c r="Z260" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB260" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC260" s="0" t="n">
+        <f aca="false">AB260*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26799,6 +28871,14 @@
       <c r="Z261" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB261" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC261" s="0" t="n">
+        <f aca="false">AB261*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
@@ -26878,7 +28958,15 @@
         <v>1</v>
       </c>
       <c r="Z262" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB262" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC262" s="0" t="n">
+        <f aca="false">AB262*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26959,7 +29047,15 @@
         <v>1</v>
       </c>
       <c r="Z263" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB263" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC263" s="0" t="n">
+        <f aca="false">AB263*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27040,7 +29136,15 @@
         <v>1</v>
       </c>
       <c r="Z264" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB264" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC264" s="0" t="n">
+        <f aca="false">AB264*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27123,6 +29227,14 @@
       <c r="Z265" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB265" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC265" s="0" t="n">
+        <f aca="false">AB265*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
@@ -27202,7 +29314,15 @@
         <v>1</v>
       </c>
       <c r="Z266" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB266" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC266" s="0" t="n">
+        <f aca="false">AB266*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27283,7 +29403,15 @@
         <v>1</v>
       </c>
       <c r="Z267" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB267" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC267" s="0" t="n">
+        <f aca="false">AB267*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27364,7 +29492,15 @@
         <v>1</v>
       </c>
       <c r="Z268" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB268" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC268" s="0" t="n">
+        <f aca="false">AB268*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27445,7 +29581,15 @@
         <v>1</v>
       </c>
       <c r="Z269" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB269" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC269" s="0" t="n">
+        <f aca="false">AB269*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27526,7 +29670,15 @@
         <v>1</v>
       </c>
       <c r="Z270" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB270" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC270" s="0" t="n">
+        <f aca="false">AB270*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27607,7 +29759,15 @@
         <v>1</v>
       </c>
       <c r="Z271" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB271" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC271" s="0" t="n">
+        <f aca="false">AB271*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27688,7 +29848,15 @@
         <v>1</v>
       </c>
       <c r="Z272" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB272" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC272" s="0" t="n">
+        <f aca="false">AB272*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27769,7 +29937,15 @@
         <v>1</v>
       </c>
       <c r="Z273" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB273" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC273" s="0" t="n">
+        <f aca="false">AB273*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27850,7 +30026,15 @@
         <v>1</v>
       </c>
       <c r="Z274" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB274" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC274" s="0" t="n">
+        <f aca="false">AB274*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27931,6 +30115,14 @@
         <v>1</v>
       </c>
       <c r="Z275" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB275" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC275" s="0" t="n">
+        <f aca="false">AB275*90</f>
         <v>180</v>
       </c>
     </row>
@@ -28012,7 +30204,15 @@
         <v>1</v>
       </c>
       <c r="Z276" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB276" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC276" s="0" t="n">
+        <f aca="false">AB276*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28093,7 +30293,15 @@
         <v>1</v>
       </c>
       <c r="Z277" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB277" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC277" s="0" t="n">
+        <f aca="false">AB277*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28174,7 +30382,15 @@
         <v>1</v>
       </c>
       <c r="Z278" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB278" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC278" s="0" t="n">
+        <f aca="false">AB278*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28255,7 +30471,15 @@
         <v>1</v>
       </c>
       <c r="Z279" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB279" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC279" s="0" t="n">
+        <f aca="false">AB279*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28336,7 +30560,15 @@
         <v>1</v>
       </c>
       <c r="Z280" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB280" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC280" s="0" t="n">
+        <f aca="false">AB280*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28417,6 +30649,14 @@
         <v>1</v>
       </c>
       <c r="Z281" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB281" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC281" s="0" t="n">
+        <f aca="false">AB281*90</f>
         <v>180</v>
       </c>
     </row>
@@ -28498,7 +30738,15 @@
         <v>1</v>
       </c>
       <c r="Z282" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB282" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC282" s="0" t="n">
+        <f aca="false">AB282*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28579,7 +30827,15 @@
         <v>1</v>
       </c>
       <c r="Z283" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB283" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC283" s="0" t="n">
+        <f aca="false">AB283*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28660,7 +30916,15 @@
         <v>1</v>
       </c>
       <c r="Z284" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB284" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC284" s="0" t="n">
+        <f aca="false">AB284*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28743,6 +31007,14 @@
       <c r="Z285" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB285" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC285" s="0" t="n">
+        <f aca="false">AB285*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
@@ -28824,6 +31096,14 @@
       <c r="Z286" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB286" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC286" s="0" t="n">
+        <f aca="false">AB286*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
@@ -28903,6 +31183,14 @@
         <v>1</v>
       </c>
       <c r="Z287" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB287" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC287" s="0" t="n">
+        <f aca="false">AB287*90</f>
         <v>180</v>
       </c>
     </row>
@@ -28984,7 +31272,15 @@
         <v>1</v>
       </c>
       <c r="Z288" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB288" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC288" s="0" t="n">
+        <f aca="false">AB288*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29065,7 +31361,15 @@
         <v>1</v>
       </c>
       <c r="Z289" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB289" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC289" s="0" t="n">
+        <f aca="false">AB289*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29146,6 +31450,14 @@
         <v>1</v>
       </c>
       <c r="Z290" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB290" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC290" s="0" t="n">
+        <f aca="false">AB290*90</f>
         <v>180</v>
       </c>
     </row>
@@ -29227,6 +31539,14 @@
         <v>1</v>
       </c>
       <c r="Z291" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB291" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC291" s="0" t="n">
+        <f aca="false">AB291*90</f>
         <v>180</v>
       </c>
     </row>
@@ -29308,7 +31628,15 @@
         <v>1</v>
       </c>
       <c r="Z292" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB292" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC292" s="0" t="n">
+        <f aca="false">AB292*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29389,7 +31717,15 @@
         <v>1</v>
       </c>
       <c r="Z293" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB293" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC293" s="0" t="n">
+        <f aca="false">AB293*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29470,7 +31806,15 @@
         <v>1</v>
       </c>
       <c r="Z294" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB294" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC294" s="0" t="n">
+        <f aca="false">AB294*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29551,7 +31895,15 @@
         <v>1</v>
       </c>
       <c r="Z295" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB295" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC295" s="0" t="n">
+        <f aca="false">AB295*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29632,6 +31984,14 @@
         <v>1</v>
       </c>
       <c r="Z296" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB296" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC296" s="0" t="n">
+        <f aca="false">AB296*90</f>
         <v>180</v>
       </c>
     </row>
@@ -29713,7 +32073,15 @@
         <v>1</v>
       </c>
       <c r="Z297" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB297" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC297" s="0" t="n">
+        <f aca="false">AB297*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29794,7 +32162,15 @@
         <v>1</v>
       </c>
       <c r="Z298" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB298" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC298" s="0" t="n">
+        <f aca="false">AB298*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29875,7 +32251,15 @@
         <v>1</v>
       </c>
       <c r="Z299" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB299" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC299" s="0" t="n">
+        <f aca="false">AB299*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29956,7 +32340,15 @@
         <v>1</v>
       </c>
       <c r="Z300" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB300" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC300" s="0" t="n">
+        <f aca="false">AB300*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30037,7 +32429,15 @@
         <v>1</v>
       </c>
       <c r="Z301" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB301" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC301" s="0" t="n">
+        <f aca="false">AB301*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30118,7 +32518,15 @@
         <v>1</v>
       </c>
       <c r="Z302" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB302" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC302" s="0" t="n">
+        <f aca="false">AB302*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30199,7 +32607,15 @@
         <v>1</v>
       </c>
       <c r="Z303" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB303" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC303" s="0" t="n">
+        <f aca="false">AB303*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30280,7 +32696,15 @@
         <v>1</v>
       </c>
       <c r="Z304" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB304" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC304" s="0" t="n">
+        <f aca="false">AB304*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30361,7 +32785,15 @@
         <v>1</v>
       </c>
       <c r="Z305" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB305" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC305" s="0" t="n">
+        <f aca="false">AB305*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30442,6 +32874,14 @@
         <v>1</v>
       </c>
       <c r="Z306" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB306" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC306" s="0" t="n">
+        <f aca="false">AB306*90</f>
         <v>180</v>
       </c>
     </row>
@@ -30523,7 +32963,15 @@
         <v>1</v>
       </c>
       <c r="Z307" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB307" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC307" s="0" t="n">
+        <f aca="false">AB307*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30604,7 +33052,15 @@
         <v>1</v>
       </c>
       <c r="Z308" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB308" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC308" s="0" t="n">
+        <f aca="false">AB308*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30685,7 +33141,15 @@
         <v>1</v>
       </c>
       <c r="Z309" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB309" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC309" s="0" t="n">
+        <f aca="false">AB309*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30768,6 +33232,14 @@
       <c r="Z310" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB310" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC310" s="0" t="n">
+        <f aca="false">AB310*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
@@ -30847,7 +33319,15 @@
         <v>1</v>
       </c>
       <c r="Z311" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB311" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC311" s="0" t="n">
+        <f aca="false">AB311*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30928,7 +33408,15 @@
         <v>1</v>
       </c>
       <c r="Z312" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB312" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC312" s="0" t="n">
+        <f aca="false">AB312*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31009,7 +33497,15 @@
         <v>1</v>
       </c>
       <c r="Z313" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB313" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC313" s="0" t="n">
+        <f aca="false">AB313*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31090,7 +33586,15 @@
         <v>1</v>
       </c>
       <c r="Z314" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB314" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC314" s="0" t="n">
+        <f aca="false">AB314*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31171,6 +33675,14 @@
         <v>1</v>
       </c>
       <c r="Z315" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB315" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC315" s="0" t="n">
+        <f aca="false">AB315*90</f>
         <v>180</v>
       </c>
     </row>
@@ -31252,7 +33764,15 @@
         <v>1</v>
       </c>
       <c r="Z316" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB316" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC316" s="0" t="n">
+        <f aca="false">AB316*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31335,6 +33855,14 @@
       <c r="Z317" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB317" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC317" s="0" t="n">
+        <f aca="false">AB317*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
@@ -31414,7 +33942,15 @@
         <v>1</v>
       </c>
       <c r="Z318" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB318" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC318" s="0" t="n">
+        <f aca="false">AB318*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31495,7 +34031,15 @@
         <v>1</v>
       </c>
       <c r="Z319" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB319" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC319" s="0" t="n">
+        <f aca="false">AB319*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31576,7 +34120,15 @@
         <v>1</v>
       </c>
       <c r="Z320" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB320" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC320" s="0" t="n">
+        <f aca="false">AB320*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31657,7 +34209,15 @@
         <v>1</v>
       </c>
       <c r="Z321" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB321" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC321" s="0" t="n">
+        <f aca="false">AB321*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31738,7 +34298,15 @@
         <v>1</v>
       </c>
       <c r="Z322" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB322" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC322" s="0" t="n">
+        <f aca="false">AB322*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31819,7 +34387,15 @@
         <v>1</v>
       </c>
       <c r="Z323" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB323" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC323" s="0" t="n">
+        <f aca="false">AB323*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31902,6 +34478,14 @@
       <c r="Z324" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB324" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC324" s="0" t="n">
+        <f aca="false">AB324*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
@@ -31981,7 +34565,15 @@
         <v>1</v>
       </c>
       <c r="Z325" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB325" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC325" s="0" t="n">
+        <f aca="false">AB325*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32062,7 +34654,15 @@
         <v>1</v>
       </c>
       <c r="Z326" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB326" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC326" s="0" t="n">
+        <f aca="false">AB326*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32143,6 +34743,14 @@
         <v>1</v>
       </c>
       <c r="Z327" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB327" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC327" s="0" t="n">
+        <f aca="false">AB327*90</f>
         <v>180</v>
       </c>
     </row>
@@ -32224,7 +34832,15 @@
         <v>1</v>
       </c>
       <c r="Z328" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB328" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC328" s="0" t="n">
+        <f aca="false">AB328*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32305,6 +34921,14 @@
         <v>1</v>
       </c>
       <c r="Z329" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB329" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC329" s="0" t="n">
+        <f aca="false">AB329*90</f>
         <v>180</v>
       </c>
     </row>
@@ -32386,7 +35010,15 @@
         <v>1</v>
       </c>
       <c r="Z330" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB330" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC330" s="0" t="n">
+        <f aca="false">AB330*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32467,7 +35099,15 @@
         <v>1</v>
       </c>
       <c r="Z331" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB331" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC331" s="0" t="n">
+        <f aca="false">AB331*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32548,6 +35188,14 @@
         <v>1</v>
       </c>
       <c r="Z332" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB332" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC332" s="0" t="n">
+        <f aca="false">AB332*90</f>
         <v>180</v>
       </c>
     </row>
@@ -32629,7 +35277,15 @@
         <v>1</v>
       </c>
       <c r="Z333" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB333" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC333" s="0" t="n">
+        <f aca="false">AB333*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32710,6 +35366,14 @@
         <v>1</v>
       </c>
       <c r="Z334" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB334" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC334" s="0" t="n">
+        <f aca="false">AB334*90</f>
         <v>180</v>
       </c>
     </row>
@@ -32793,6 +35457,14 @@
       <c r="Z335" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB335" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC335" s="0" t="n">
+        <f aca="false">AB335*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
@@ -32872,7 +35544,15 @@
         <v>1</v>
       </c>
       <c r="Z336" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB336" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC336" s="0" t="n">
+        <f aca="false">AB336*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32953,7 +35633,15 @@
         <v>1</v>
       </c>
       <c r="Z337" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB337" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC337" s="0" t="n">
+        <f aca="false">AB337*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33034,7 +35722,15 @@
         <v>1</v>
       </c>
       <c r="Z338" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB338" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC338" s="0" t="n">
+        <f aca="false">AB338*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33115,7 +35811,15 @@
         <v>1</v>
       </c>
       <c r="Z339" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB339" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC339" s="0" t="n">
+        <f aca="false">AB339*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33196,7 +35900,15 @@
         <v>1</v>
       </c>
       <c r="Z340" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB340" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC340" s="0" t="n">
+        <f aca="false">AB340*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33277,7 +35989,15 @@
         <v>1</v>
       </c>
       <c r="Z341" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB341" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC341" s="0" t="n">
+        <f aca="false">AB341*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33358,6 +36078,14 @@
         <v>1</v>
       </c>
       <c r="Z342" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB342" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC342" s="0" t="n">
+        <f aca="false">AB342*90</f>
         <v>180</v>
       </c>
     </row>
@@ -33439,6 +36167,14 @@
         <v>1</v>
       </c>
       <c r="Z343" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB343" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC343" s="0" t="n">
+        <f aca="false">AB343*90</f>
         <v>180</v>
       </c>
     </row>
@@ -33520,7 +36256,15 @@
         <v>1</v>
       </c>
       <c r="Z344" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB344" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC344" s="0" t="n">
+        <f aca="false">AB344*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33601,6 +36345,14 @@
         <v>1</v>
       </c>
       <c r="Z345" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB345" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC345" s="0" t="n">
+        <f aca="false">AB345*90</f>
         <v>180</v>
       </c>
     </row>
@@ -33682,7 +36434,15 @@
         <v>1</v>
       </c>
       <c r="Z346" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB346" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC346" s="0" t="n">
+        <f aca="false">AB346*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33763,7 +36523,15 @@
         <v>1</v>
       </c>
       <c r="Z347" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB347" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC347" s="0" t="n">
+        <f aca="false">AB347*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33844,6 +36612,14 @@
         <v>1</v>
       </c>
       <c r="Z348" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB348" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC348" s="0" t="n">
+        <f aca="false">AB348*90</f>
         <v>180</v>
       </c>
     </row>
@@ -33927,6 +36703,14 @@
       <c r="Z349" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB349" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC349" s="0" t="n">
+        <f aca="false">AB349*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
@@ -34008,6 +36792,14 @@
       <c r="Z350" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB350" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC350" s="0" t="n">
+        <f aca="false">AB350*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
@@ -34087,7 +36879,15 @@
         <v>1</v>
       </c>
       <c r="Z351" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB351" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC351" s="0" t="n">
+        <f aca="false">AB351*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34168,7 +36968,15 @@
         <v>1</v>
       </c>
       <c r="Z352" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB352" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC352" s="0" t="n">
+        <f aca="false">AB352*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34249,7 +37057,15 @@
         <v>1</v>
       </c>
       <c r="Z353" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB353" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC353" s="0" t="n">
+        <f aca="false">AB353*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34330,6 +37146,14 @@
         <v>1</v>
       </c>
       <c r="Z354" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB354" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC354" s="0" t="n">
+        <f aca="false">AB354*90</f>
         <v>180</v>
       </c>
     </row>
@@ -34411,7 +37235,15 @@
         <v>1</v>
       </c>
       <c r="Z355" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB355" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC355" s="0" t="n">
+        <f aca="false">AB355*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34494,6 +37326,14 @@
       <c r="Z356" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB356" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC356" s="0" t="n">
+        <f aca="false">AB356*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
@@ -34573,6 +37413,14 @@
         <v>1</v>
       </c>
       <c r="Z357" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB357" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC357" s="0" t="n">
+        <f aca="false">AB357*90</f>
         <v>180</v>
       </c>
     </row>
@@ -34654,6 +37502,14 @@
         <v>1</v>
       </c>
       <c r="Z358" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB358" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC358" s="0" t="n">
+        <f aca="false">AB358*90</f>
         <v>180</v>
       </c>
     </row>
@@ -34735,7 +37591,15 @@
         <v>1</v>
       </c>
       <c r="Z359" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB359" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC359" s="0" t="n">
+        <f aca="false">AB359*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34816,7 +37680,15 @@
         <v>1</v>
       </c>
       <c r="Z360" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB360" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC360" s="0" t="n">
+        <f aca="false">AB360*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34897,7 +37769,15 @@
         <v>1</v>
       </c>
       <c r="Z361" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB361" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC361" s="0" t="n">
+        <f aca="false">AB361*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34978,7 +37858,15 @@
         <v>1</v>
       </c>
       <c r="Z362" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB362" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC362" s="0" t="n">
+        <f aca="false">AB362*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35059,7 +37947,15 @@
         <v>1</v>
       </c>
       <c r="Z363" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB363" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC363" s="0" t="n">
+        <f aca="false">AB363*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35140,7 +38036,15 @@
         <v>1</v>
       </c>
       <c r="Z364" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB364" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC364" s="0" t="n">
+        <f aca="false">AB364*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35223,6 +38127,14 @@
       <c r="Z365" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB365" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC365" s="0" t="n">
+        <f aca="false">AB365*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
@@ -35302,7 +38214,15 @@
         <v>1</v>
       </c>
       <c r="Z366" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB366" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC366" s="0" t="n">
+        <f aca="false">AB366*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35383,6 +38303,14 @@
         <v>1</v>
       </c>
       <c r="Z367" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB367" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC367" s="0" t="n">
+        <f aca="false">AB367*90</f>
         <v>180</v>
       </c>
     </row>
@@ -35464,7 +38392,15 @@
         <v>1</v>
       </c>
       <c r="Z368" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB368" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC368" s="0" t="n">
+        <f aca="false">AB368*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35545,6 +38481,14 @@
         <v>1</v>
       </c>
       <c r="Z369" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB369" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC369" s="0" t="n">
+        <f aca="false">AB369*90</f>
         <v>180</v>
       </c>
     </row>
@@ -35626,6 +38570,14 @@
         <v>1</v>
       </c>
       <c r="Z370" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB370" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC370" s="0" t="n">
+        <f aca="false">AB370*90</f>
         <v>180</v>
       </c>
     </row>
@@ -35707,7 +38659,15 @@
         <v>1</v>
       </c>
       <c r="Z371" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB371" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC371" s="0" t="n">
+        <f aca="false">AB371*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35788,7 +38748,15 @@
         <v>1</v>
       </c>
       <c r="Z372" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB372" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC372" s="0" t="n">
+        <f aca="false">AB372*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35869,7 +38837,15 @@
         <v>1</v>
       </c>
       <c r="Z373" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB373" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC373" s="0" t="n">
+        <f aca="false">AB373*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35950,7 +38926,15 @@
         <v>1</v>
       </c>
       <c r="Z374" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB374" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC374" s="0" t="n">
+        <f aca="false">AB374*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36031,7 +39015,15 @@
         <v>1</v>
       </c>
       <c r="Z375" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB375" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC375" s="0" t="n">
+        <f aca="false">AB375*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36112,7 +39104,15 @@
         <v>1</v>
       </c>
       <c r="Z376" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB376" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC376" s="0" t="n">
+        <f aca="false">AB376*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36193,7 +39193,15 @@
         <v>1</v>
       </c>
       <c r="Z377" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB377" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC377" s="0" t="n">
+        <f aca="false">AB377*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36276,6 +39284,14 @@
       <c r="Z378" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB378" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC378" s="0" t="n">
+        <f aca="false">AB378*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
@@ -36355,7 +39371,15 @@
         <v>1</v>
       </c>
       <c r="Z379" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB379" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC379" s="0" t="n">
+        <f aca="false">AB379*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36436,7 +39460,15 @@
         <v>1</v>
       </c>
       <c r="Z380" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB380" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC380" s="0" t="n">
+        <f aca="false">AB380*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36517,6 +39549,14 @@
         <v>1</v>
       </c>
       <c r="Z381" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB381" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC381" s="0" t="n">
+        <f aca="false">AB381*90</f>
         <v>180</v>
       </c>
     </row>
@@ -36598,6 +39638,14 @@
         <v>1</v>
       </c>
       <c r="Z382" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="AB382" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC382" s="0" t="n">
+        <f aca="false">AB382*90</f>
         <v>180</v>
       </c>
     </row>
@@ -36681,6 +39729,14 @@
       <c r="Z383" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB383" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC383" s="0" t="n">
+        <f aca="false">AB383*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
@@ -36760,7 +39816,15 @@
         <v>1</v>
       </c>
       <c r="Z384" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB384" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC384" s="0" t="n">
+        <f aca="false">AB384*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36841,7 +39905,15 @@
         <v>1</v>
       </c>
       <c r="Z385" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB385" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC385" s="0" t="n">
+        <f aca="false">AB385*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36922,7 +39994,15 @@
         <v>1</v>
       </c>
       <c r="Z386" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB386" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC386" s="0" t="n">
+        <f aca="false">AB386*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37003,7 +40083,15 @@
         <v>1</v>
       </c>
       <c r="Z387" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB387" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC387" s="0" t="n">
+        <f aca="false">AB387*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37084,7 +40172,15 @@
         <v>1</v>
       </c>
       <c r="Z388" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB388" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC388" s="0" t="n">
+        <f aca="false">AB388*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37165,7 +40261,15 @@
         <v>1</v>
       </c>
       <c r="Z389" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB389" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC389" s="0" t="n">
+        <f aca="false">AB389*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37246,7 +40350,15 @@
         <v>1</v>
       </c>
       <c r="Z390" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB390" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC390" s="0" t="n">
+        <f aca="false">AB390*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37327,7 +40439,15 @@
         <v>1</v>
       </c>
       <c r="Z391" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB391" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC391" s="0" t="n">
+        <f aca="false">AB391*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37408,7 +40528,15 @@
         <v>1</v>
       </c>
       <c r="Z392" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB392" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC392" s="0" t="n">
+        <f aca="false">AB392*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37489,7 +40617,15 @@
         <v>1</v>
       </c>
       <c r="Z393" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB393" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC393" s="0" t="n">
+        <f aca="false">AB393*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37570,7 +40706,15 @@
         <v>1</v>
       </c>
       <c r="Z394" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB394" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC394" s="0" t="n">
+        <f aca="false">AB394*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37651,7 +40795,15 @@
         <v>1</v>
       </c>
       <c r="Z395" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB395" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC395" s="0" t="n">
+        <f aca="false">AB395*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37732,7 +40884,15 @@
         <v>1</v>
       </c>
       <c r="Z396" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB396" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC396" s="0" t="n">
+        <f aca="false">AB396*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37813,7 +40973,15 @@
         <v>1</v>
       </c>
       <c r="Z397" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB397" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC397" s="0" t="n">
+        <f aca="false">AB397*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37894,7 +41062,15 @@
         <v>1</v>
       </c>
       <c r="Z398" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB398" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC398" s="0" t="n">
+        <f aca="false">AB398*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37975,6 +41151,14 @@
         <v>1</v>
       </c>
       <c r="Z399" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB399" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC399" s="0" t="n">
+        <f aca="false">AB399*90</f>
         <v>180</v>
       </c>
     </row>
@@ -38056,7 +41240,15 @@
         <v>1</v>
       </c>
       <c r="Z400" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB400" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC400" s="0" t="n">
+        <f aca="false">AB400*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38137,6 +41329,14 @@
         <v>1</v>
       </c>
       <c r="Z401" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB401" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC401" s="0" t="n">
+        <f aca="false">AB401*90</f>
         <v>180</v>
       </c>
     </row>
@@ -38218,7 +41418,15 @@
         <v>1</v>
       </c>
       <c r="Z402" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB402" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC402" s="0" t="n">
+        <f aca="false">AB402*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38299,7 +41507,15 @@
         <v>1</v>
       </c>
       <c r="Z403" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB403" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC403" s="0" t="n">
+        <f aca="false">AB403*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38380,7 +41596,15 @@
         <v>1</v>
       </c>
       <c r="Z404" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB404" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC404" s="0" t="n">
+        <f aca="false">AB404*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38461,7 +41685,15 @@
         <v>1</v>
       </c>
       <c r="Z405" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB405" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC405" s="0" t="n">
+        <f aca="false">AB405*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38542,6 +41774,14 @@
         <v>1</v>
       </c>
       <c r="Z406" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB406" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC406" s="0" t="n">
+        <f aca="false">AB406*90</f>
         <v>180</v>
       </c>
     </row>
@@ -38623,7 +41863,15 @@
         <v>1</v>
       </c>
       <c r="Z407" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB407" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC407" s="0" t="n">
+        <f aca="false">AB407*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38706,6 +41954,14 @@
       <c r="Z408" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB408" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC408" s="0" t="n">
+        <f aca="false">AB408*90</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
@@ -38785,7 +42041,15 @@
         <v>1</v>
       </c>
       <c r="Z409" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB409" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC409" s="0" t="n">
+        <f aca="false">AB409*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38868,6 +42132,14 @@
       <c r="Z410" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB410" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC410" s="0" t="n">
+        <f aca="false">AB410*90</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
@@ -38947,7 +42219,15 @@
         <v>1</v>
       </c>
       <c r="Z411" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB411" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC411" s="0" t="n">
+        <f aca="false">AB411*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39028,6 +42308,14 @@
         <v>1</v>
       </c>
       <c r="Z412" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB412" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC412" s="0" t="n">
+        <f aca="false">AB412*90</f>
         <v>180</v>
       </c>
     </row>
@@ -39111,6 +42399,14 @@
       <c r="Z413" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB413" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC413" s="0" t="n">
+        <f aca="false">AB413*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
@@ -39192,6 +42488,14 @@
       <c r="Z414" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB414" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC414" s="0" t="n">
+        <f aca="false">AB414*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
@@ -39271,7 +42575,15 @@
         <v>1</v>
       </c>
       <c r="Z415" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB415" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC415" s="0" t="n">
+        <f aca="false">AB415*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39352,7 +42664,15 @@
         <v>1</v>
       </c>
       <c r="Z416" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB416" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC416" s="0" t="n">
+        <f aca="false">AB416*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39433,7 +42753,15 @@
         <v>1</v>
       </c>
       <c r="Z417" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB417" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC417" s="0" t="n">
+        <f aca="false">AB417*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39514,7 +42842,15 @@
         <v>1</v>
       </c>
       <c r="Z418" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB418" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC418" s="0" t="n">
+        <f aca="false">AB418*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39597,6 +42933,14 @@
       <c r="Z419" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB419" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC419" s="0" t="n">
+        <f aca="false">AB419*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
@@ -39676,7 +43020,15 @@
         <v>1</v>
       </c>
       <c r="Z420" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB420" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC420" s="0" t="n">
+        <f aca="false">AB420*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39757,7 +43109,15 @@
         <v>1</v>
       </c>
       <c r="Z421" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB421" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC421" s="0" t="n">
+        <f aca="false">AB421*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39838,7 +43198,15 @@
         <v>1</v>
       </c>
       <c r="Z422" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB422" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC422" s="0" t="n">
+        <f aca="false">AB422*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39919,7 +43287,15 @@
         <v>1</v>
       </c>
       <c r="Z423" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB423" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC423" s="0" t="n">
+        <f aca="false">AB423*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40002,6 +43378,14 @@
       <c r="Z424" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB424" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC424" s="0" t="n">
+        <f aca="false">AB424*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
@@ -40081,7 +43465,15 @@
         <v>1</v>
       </c>
       <c r="Z425" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB425" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC425" s="0" t="n">
+        <f aca="false">AB425*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40164,6 +43556,14 @@
       <c r="Z426" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB426" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC426" s="0" t="n">
+        <f aca="false">AB426*90</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
@@ -40243,7 +43643,15 @@
         <v>1</v>
       </c>
       <c r="Z427" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB427" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC427" s="0" t="n">
+        <f aca="false">AB427*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40324,7 +43732,15 @@
         <v>1</v>
       </c>
       <c r="Z428" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB428" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC428" s="0" t="n">
+        <f aca="false">AB428*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40405,7 +43821,15 @@
         <v>1</v>
       </c>
       <c r="Z429" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB429" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC429" s="0" t="n">
+        <f aca="false">AB429*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40486,7 +43910,15 @@
         <v>1</v>
       </c>
       <c r="Z430" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB430" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC430" s="0" t="n">
+        <f aca="false">AB430*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40567,7 +43999,15 @@
         <v>1</v>
       </c>
       <c r="Z431" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB431" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC431" s="0" t="n">
+        <f aca="false">AB431*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40650,6 +44090,14 @@
       <c r="Z432" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB432" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC432" s="0" t="n">
+        <f aca="false">AB432*90</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
@@ -40729,7 +44177,15 @@
         <v>1</v>
       </c>
       <c r="Z433" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB433" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC433" s="0" t="n">
+        <f aca="false">AB433*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40810,6 +44266,14 @@
         <v>1</v>
       </c>
       <c r="Z434" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB434" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC434" s="0" t="n">
+        <f aca="false">AB434*90</f>
         <v>180</v>
       </c>
     </row>
@@ -40891,7 +44355,15 @@
         <v>1</v>
       </c>
       <c r="Z435" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB435" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC435" s="0" t="n">
+        <f aca="false">AB435*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40972,7 +44444,15 @@
         <v>1</v>
       </c>
       <c r="Z436" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB436" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC436" s="0" t="n">
+        <f aca="false">AB436*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41053,7 +44533,15 @@
         <v>1</v>
       </c>
       <c r="Z437" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB437" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC437" s="0" t="n">
+        <f aca="false">AB437*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41134,6 +44622,14 @@
         <v>1</v>
       </c>
       <c r="Z438" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB438" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC438" s="0" t="n">
+        <f aca="false">AB438*90</f>
         <v>180</v>
       </c>
     </row>
@@ -41215,7 +44711,15 @@
         <v>1</v>
       </c>
       <c r="Z439" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB439" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC439" s="0" t="n">
+        <f aca="false">AB439*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41296,7 +44800,15 @@
         <v>1</v>
       </c>
       <c r="Z440" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB440" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC440" s="0" t="n">
+        <f aca="false">AB440*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41377,7 +44889,15 @@
         <v>1</v>
       </c>
       <c r="Z441" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB441" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC441" s="0" t="n">
+        <f aca="false">AB441*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41458,7 +44978,15 @@
         <v>1</v>
       </c>
       <c r="Z442" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB442" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC442" s="0" t="n">
+        <f aca="false">AB442*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41541,6 +45069,14 @@
       <c r="Z443" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB443" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC443" s="0" t="n">
+        <f aca="false">AB443*90</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
@@ -41620,7 +45156,15 @@
         <v>1</v>
       </c>
       <c r="Z444" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB444" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC444" s="0" t="n">
+        <f aca="false">AB444*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41703,6 +45247,14 @@
       <c r="Z445" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB445" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC445" s="0" t="n">
+        <f aca="false">AB445*90</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
@@ -41782,7 +45334,15 @@
         <v>1</v>
       </c>
       <c r="Z446" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB446" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC446" s="0" t="n">
+        <f aca="false">AB446*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41863,6 +45423,14 @@
         <v>1</v>
       </c>
       <c r="Z447" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB447" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC447" s="0" t="n">
+        <f aca="false">AB447*90</f>
         <v>180</v>
       </c>
     </row>
@@ -41946,6 +45514,14 @@
       <c r="Z448" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB448" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC448" s="0" t="n">
+        <f aca="false">AB448*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
@@ -42025,7 +45601,15 @@
         <v>1</v>
       </c>
       <c r="Z449" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB449" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC449" s="0" t="n">
+        <f aca="false">AB449*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42106,7 +45690,15 @@
         <v>1</v>
       </c>
       <c r="Z450" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB450" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC450" s="0" t="n">
+        <f aca="false">AB450*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42187,7 +45779,15 @@
         <v>1</v>
       </c>
       <c r="Z451" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB451" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC451" s="0" t="n">
+        <f aca="false">AB451*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42268,7 +45868,15 @@
         <v>1</v>
       </c>
       <c r="Z452" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB452" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC452" s="0" t="n">
+        <f aca="false">AB452*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42349,7 +45957,15 @@
         <v>1</v>
       </c>
       <c r="Z453" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB453" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC453" s="0" t="n">
+        <f aca="false">AB453*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42430,7 +46046,15 @@
         <v>1</v>
       </c>
       <c r="Z454" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB454" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC454" s="0" t="n">
+        <f aca="false">AB454*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42511,7 +46135,15 @@
         <v>1</v>
       </c>
       <c r="Z455" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB455" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC455" s="0" t="n">
+        <f aca="false">AB455*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42592,7 +46224,15 @@
         <v>1</v>
       </c>
       <c r="Z456" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB456" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC456" s="0" t="n">
+        <f aca="false">AB456*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42673,7 +46313,15 @@
         <v>1</v>
       </c>
       <c r="Z457" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB457" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC457" s="0" t="n">
+        <f aca="false">AB457*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42754,7 +46402,15 @@
         <v>1</v>
       </c>
       <c r="Z458" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="AB458" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC458" s="0" t="n">
+        <f aca="false">AB458*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42835,7 +46491,15 @@
         <v>1</v>
       </c>
       <c r="Z459" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB459" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC459" s="0" t="n">
+        <f aca="false">AB459*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42916,6 +46580,14 @@
         <v>1</v>
       </c>
       <c r="Z460" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB460" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC460" s="0" t="n">
+        <f aca="false">AB460*90</f>
         <v>180</v>
       </c>
     </row>
@@ -42997,6 +46669,14 @@
         <v>1</v>
       </c>
       <c r="Z461" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB461" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC461" s="0" t="n">
+        <f aca="false">AB461*90</f>
         <v>180</v>
       </c>
     </row>
@@ -43078,7 +46758,15 @@
         <v>1</v>
       </c>
       <c r="Z462" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB462" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC462" s="0" t="n">
+        <f aca="false">AB462*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43159,7 +46847,15 @@
         <v>1</v>
       </c>
       <c r="Z463" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB463" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC463" s="0" t="n">
+        <f aca="false">AB463*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43240,7 +46936,15 @@
         <v>1</v>
       </c>
       <c r="Z464" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB464" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC464" s="0" t="n">
+        <f aca="false">AB464*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43321,7 +47025,15 @@
         <v>1</v>
       </c>
       <c r="Z465" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB465" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC465" s="0" t="n">
+        <f aca="false">AB465*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43404,6 +47116,14 @@
       <c r="Z466" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB466" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC466" s="0" t="n">
+        <f aca="false">AB466*90</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
@@ -43483,6 +47203,14 @@
         <v>1</v>
       </c>
       <c r="Z467" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB467" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC467" s="0" t="n">
+        <f aca="false">AB467*90</f>
         <v>180</v>
       </c>
     </row>
@@ -43564,7 +47292,15 @@
         <v>1</v>
       </c>
       <c r="Z468" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB468" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC468" s="0" t="n">
+        <f aca="false">AB468*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43645,7 +47381,15 @@
         <v>1</v>
       </c>
       <c r="Z469" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB469" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC469" s="0" t="n">
+        <f aca="false">AB469*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43726,7 +47470,15 @@
         <v>1</v>
       </c>
       <c r="Z470" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB470" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC470" s="0" t="n">
+        <f aca="false">AB470*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43809,6 +47561,14 @@
       <c r="Z471" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AB471" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC471" s="0" t="n">
+        <f aca="false">AB471*90</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
@@ -43888,7 +47648,15 @@
         <v>1</v>
       </c>
       <c r="Z472" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB472" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC472" s="0" t="n">
+        <f aca="false">AB472*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43969,7 +47737,15 @@
         <v>1</v>
       </c>
       <c r="Z473" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB473" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC473" s="0" t="n">
+        <f aca="false">AB473*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44050,7 +47826,15 @@
         <v>1</v>
       </c>
       <c r="Z474" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB474" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AC474" s="0" t="n">
+        <f aca="false">AB474*90</f>
+        <v>630</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44131,7 +47915,15 @@
         <v>1</v>
       </c>
       <c r="Z475" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB475" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC475" s="0" t="n">
+        <f aca="false">AB475*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44212,7 +48004,15 @@
         <v>1</v>
       </c>
       <c r="Z476" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB476" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC476" s="0" t="n">
+        <f aca="false">AB476*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44293,7 +48093,15 @@
         <v>1</v>
       </c>
       <c r="Z477" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB477" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC477" s="0" t="n">
+        <f aca="false">AB477*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44374,7 +48182,15 @@
         <v>1</v>
       </c>
       <c r="Z478" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB478" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC478" s="0" t="n">
+        <f aca="false">AB478*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44455,6 +48271,14 @@
         <v>1</v>
       </c>
       <c r="Z479" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB479" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC479" s="0" t="n">
+        <f aca="false">AB479*90</f>
         <v>180</v>
       </c>
     </row>
@@ -44536,7 +48360,15 @@
         <v>1</v>
       </c>
       <c r="Z480" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB480" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC480" s="0" t="n">
+        <f aca="false">AB480*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44617,7 +48449,15 @@
         <v>1</v>
       </c>
       <c r="Z481" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB481" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC481" s="0" t="n">
+        <f aca="false">AB481*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44698,7 +48538,15 @@
         <v>1</v>
       </c>
       <c r="Z482" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB482" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC482" s="0" t="n">
+        <f aca="false">AB482*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44779,7 +48627,15 @@
         <v>1</v>
       </c>
       <c r="Z483" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB483" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC483" s="0" t="n">
+        <f aca="false">AB483*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44860,7 +48716,15 @@
         <v>1</v>
       </c>
       <c r="Z484" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB484" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC484" s="0" t="n">
+        <f aca="false">AB484*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44941,7 +48805,15 @@
         <v>1</v>
       </c>
       <c r="Z485" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB485" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC485" s="0" t="n">
+        <f aca="false">AB485*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45022,7 +48894,15 @@
         <v>1</v>
       </c>
       <c r="Z486" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB486" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC486" s="0" t="n">
+        <f aca="false">AB486*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45103,7 +48983,15 @@
         <v>1</v>
       </c>
       <c r="Z487" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB487" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC487" s="0" t="n">
+        <f aca="false">AB487*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45184,7 +49072,15 @@
         <v>1</v>
       </c>
       <c r="Z488" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="AB488" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC488" s="0" t="n">
+        <f aca="false">AB488*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45265,7 +49161,15 @@
         <v>1</v>
       </c>
       <c r="Z489" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB489" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC489" s="0" t="n">
+        <f aca="false">AB489*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45346,7 +49250,15 @@
         <v>1</v>
       </c>
       <c r="Z490" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB490" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC490" s="0" t="n">
+        <f aca="false">AB490*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45427,7 +49339,15 @@
         <v>1</v>
       </c>
       <c r="Z491" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB491" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC491" s="0" t="n">
+        <f aca="false">AB491*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45508,6 +49428,14 @@
         <v>1</v>
       </c>
       <c r="Z492" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB492" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC492" s="0" t="n">
+        <f aca="false">AB492*90</f>
         <v>180</v>
       </c>
     </row>
@@ -45589,6 +49517,14 @@
         <v>1</v>
       </c>
       <c r="Z493" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AB493" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AC493" s="0" t="n">
+        <f aca="false">AB493*90</f>
         <v>180</v>
       </c>
     </row>
@@ -45670,7 +49606,15 @@
         <v>1</v>
       </c>
       <c r="Z494" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB494" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC494" s="0" t="n">
+        <f aca="false">AB494*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45751,7 +49695,15 @@
         <v>1</v>
       </c>
       <c r="Z495" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB495" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC495" s="0" t="n">
+        <f aca="false">AB495*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45832,7 +49784,15 @@
         <v>1</v>
       </c>
       <c r="Z496" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB496" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC496" s="0" t="n">
+        <f aca="false">AB496*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45913,7 +49873,15 @@
         <v>1</v>
       </c>
       <c r="Z497" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB497" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC497" s="0" t="n">
+        <f aca="false">AB497*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45994,7 +49962,15 @@
         <v>1</v>
       </c>
       <c r="Z498" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB498" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC498" s="0" t="n">
+        <f aca="false">AB498*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46075,7 +50051,15 @@
         <v>1</v>
       </c>
       <c r="Z499" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB499" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC499" s="0" t="n">
+        <f aca="false">AB499*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46156,7 +50140,15 @@
         <v>1</v>
       </c>
       <c r="Z500" s="0" t="n">
-        <v>180</v>
+        <v>360</v>
+      </c>
+      <c r="AB500" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC500" s="0" t="n">
+        <f aca="false">AB500*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46237,7 +50229,15 @@
         <v>1</v>
       </c>
       <c r="Z501" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB501" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AC501" s="0" t="n">
+        <f aca="false">AB501*90</f>
+        <v>720</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46318,7 +50318,15 @@
         <v>1</v>
       </c>
       <c r="Z502" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB502" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC502" s="0" t="n">
+        <f aca="false">AB502*90</f>
+        <v>450</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46399,7 +50407,15 @@
         <v>1</v>
       </c>
       <c r="Z503" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
+      </c>
+      <c r="AB503" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AC503" s="0" t="n">
+        <f aca="false">AB503*90</f>
+        <v>270</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46480,7 +50496,15 @@
         <v>1</v>
       </c>
       <c r="Z504" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB504" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC504" s="0" t="n">
+        <f aca="false">AB504*90</f>
+        <v>540</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46561,7 +50585,15 @@
         <v>1</v>
       </c>
       <c r="Z505" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
+      </c>
+      <c r="AB505" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC505" s="0" t="n">
+        <f aca="false">AB505*90</f>
+        <v>360</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46642,7 +50674,15 @@
         <v>1</v>
       </c>
       <c r="Z506" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
+      </c>
+      <c r="AB506" s="0" t="n">
+        <f aca="false">RANDBETWEEN(2,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC506" s="0" t="n">
+        <f aca="false">AB506*90</f>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter_pandas/cmed_final_v3.xlsx
+++ b/jupyter_pandas/cmed_final_v3.xlsx
@@ -5642,8 +5642,8 @@
   </sheetPr>
   <dimension ref="A1:AC506"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2:Z506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5818,15 +5818,15 @@
         <v>1</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC2" s="0" t="n">
         <f aca="false">AB2*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,15 +5907,15 @@
         <v>1</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC3" s="0" t="n">
         <f aca="false">AB3*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,15 +5996,15 @@
         <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC4" s="0" t="n">
         <f aca="false">AB4*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,15 +6085,15 @@
         <v>1</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="false">AB5*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC6" s="0" t="n">
@@ -6263,15 +6263,15 @@
         <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">AB7*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,15 +6352,15 @@
         <v>1</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">AB8*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,15 +6441,15 @@
         <v>1</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">AB9*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6530,10 @@
         <v>1</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC10" s="0" t="n">
@@ -6619,15 +6619,15 @@
         <v>1</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">AB11*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,10 +6708,10 @@
         <v>1</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC12" s="0" t="n">
@@ -6797,15 +6797,15 @@
         <v>1</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">AB13*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,15 +6886,15 @@
         <v>1</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">AB14*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,15 +6975,15 @@
         <v>1</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="false">AB15*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,15 +7064,15 @@
         <v>1</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB16" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">AB16*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7153,15 +7153,15 @@
         <v>1</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB17" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">AB17*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,15 +7242,15 @@
         <v>1</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">AB18*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,15 +7331,15 @@
         <v>1</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB19" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">AB19*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,15 +7420,15 @@
         <v>1</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB20" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">AB20*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,15 +7509,15 @@
         <v>1</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">AB21*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,15 +7598,15 @@
         <v>1</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">AB22*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7687,15 +7687,15 @@
         <v>1</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC23" s="0" t="n">
         <f aca="false">AB23*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7776,15 +7776,15 @@
         <v>1</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB24" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">AB24*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7865,15 +7865,15 @@
         <v>1</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB25" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC25" s="0" t="n">
         <f aca="false">AB25*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,10 +7954,10 @@
         <v>1</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB26" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC26" s="0" t="n">
@@ -8043,10 +8043,10 @@
         <v>1</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB27" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC27" s="0" t="n">
@@ -8132,15 +8132,15 @@
         <v>1</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB28" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC28" s="0" t="n">
         <f aca="false">AB28*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,12 +8224,12 @@
         <v>450</v>
       </c>
       <c r="AB29" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC29" s="0" t="n">
         <f aca="false">AB29*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,15 +8310,15 @@
         <v>1</v>
       </c>
       <c r="Z30" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB30" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC30" s="0" t="n">
         <f aca="false">AB30*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,15 +8399,15 @@
         <v>1</v>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB31" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC31" s="0" t="n">
         <f aca="false">AB31*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8488,15 +8488,15 @@
         <v>1</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB32" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC32" s="0" t="n">
         <f aca="false">AB32*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,15 +8577,15 @@
         <v>1</v>
       </c>
       <c r="Z33" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB33" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC33" s="0" t="n">
         <f aca="false">AB33*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,10 +8666,10 @@
         <v>1</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB34" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC34" s="0" t="n">
@@ -8755,15 +8755,15 @@
         <v>1</v>
       </c>
       <c r="Z35" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB35" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC35" s="0" t="n">
         <f aca="false">AB35*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,15 +8844,15 @@
         <v>1</v>
       </c>
       <c r="Z36" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB36" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC36" s="0" t="n">
         <f aca="false">AB36*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,15 +8933,15 @@
         <v>1</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB37" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC37" s="0" t="n">
         <f aca="false">AB37*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,15 +9022,15 @@
         <v>1</v>
       </c>
       <c r="Z38" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB38" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC38" s="0" t="n">
         <f aca="false">AB38*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9111,15 +9111,15 @@
         <v>1</v>
       </c>
       <c r="Z39" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB39" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC39" s="0" t="n">
         <f aca="false">AB39*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,15 +9200,15 @@
         <v>1</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB40" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC40" s="0" t="n">
         <f aca="false">AB40*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,15 +9289,15 @@
         <v>1</v>
       </c>
       <c r="Z41" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB41" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC41" s="0" t="n">
         <f aca="false">AB41*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9378,15 +9378,15 @@
         <v>1</v>
       </c>
       <c r="Z42" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB42" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC42" s="0" t="n">
         <f aca="false">AB42*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,15 +9467,15 @@
         <v>1</v>
       </c>
       <c r="Z43" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB43" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC43" s="0" t="n">
         <f aca="false">AB43*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,15 +9556,15 @@
         <v>1</v>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB44" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC44" s="0" t="n">
         <f aca="false">AB44*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,15 +9645,15 @@
         <v>1</v>
       </c>
       <c r="Z45" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB45" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC45" s="0" t="n">
         <f aca="false">AB45*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="Z46" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB46" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC46" s="0" t="n">
@@ -9823,15 +9823,15 @@
         <v>1</v>
       </c>
       <c r="Z47" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB47" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC47" s="0" t="n">
         <f aca="false">AB47*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,15 +9912,15 @@
         <v>1</v>
       </c>
       <c r="Z48" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB48" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC48" s="0" t="n">
         <f aca="false">AB48*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,15 +10001,15 @@
         <v>1</v>
       </c>
       <c r="Z49" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB49" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC49" s="0" t="n">
         <f aca="false">AB49*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10090,15 +10090,15 @@
         <v>1</v>
       </c>
       <c r="Z50" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB50" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC50" s="0" t="n">
         <f aca="false">AB50*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,15 +10179,15 @@
         <v>1</v>
       </c>
       <c r="Z51" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB51" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC51" s="0" t="n">
         <f aca="false">AB51*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10268,15 +10268,15 @@
         <v>1</v>
       </c>
       <c r="Z52" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB52" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC52" s="0" t="n">
         <f aca="false">AB52*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,15 +10357,15 @@
         <v>1</v>
       </c>
       <c r="Z53" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB53" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC53" s="0" t="n">
         <f aca="false">AB53*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,7 +10449,7 @@
         <v>540</v>
       </c>
       <c r="AB54" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC54" s="0" t="n">
@@ -10535,15 +10535,15 @@
         <v>1</v>
       </c>
       <c r="Z55" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB55" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC55" s="0" t="n">
         <f aca="false">AB55*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,12 +10627,12 @@
         <v>450</v>
       </c>
       <c r="AB56" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC56" s="0" t="n">
         <f aca="false">AB56*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10713,15 +10713,15 @@
         <v>1</v>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB57" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC57" s="0" t="n">
         <f aca="false">AB57*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10802,15 +10802,15 @@
         <v>1</v>
       </c>
       <c r="Z58" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB58" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC58" s="0" t="n">
         <f aca="false">AB58*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10891,15 +10891,15 @@
         <v>1</v>
       </c>
       <c r="Z59" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB59" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC59" s="0" t="n">
         <f aca="false">AB59*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10980,15 +10980,15 @@
         <v>1</v>
       </c>
       <c r="Z60" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB60" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC60" s="0" t="n">
         <f aca="false">AB60*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,10 +11069,10 @@
         <v>1</v>
       </c>
       <c r="Z61" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB61" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC61" s="0" t="n">
@@ -11158,10 +11158,10 @@
         <v>1</v>
       </c>
       <c r="Z62" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB62" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC62" s="0" t="n">
@@ -11247,15 +11247,15 @@
         <v>1</v>
       </c>
       <c r="Z63" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB63" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC63" s="0" t="n">
         <f aca="false">AB63*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11339,12 +11339,12 @@
         <v>720</v>
       </c>
       <c r="AB64" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC64" s="0" t="n">
         <f aca="false">AB64*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11425,10 +11425,10 @@
         <v>1</v>
       </c>
       <c r="Z65" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB65" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC65" s="0" t="n">
@@ -11514,15 +11514,15 @@
         <v>1</v>
       </c>
       <c r="Z66" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB66" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC66" s="0" t="n">
         <f aca="false">AB66*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11603,15 +11603,15 @@
         <v>1</v>
       </c>
       <c r="Z67" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB67" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC67" s="0" t="n">
         <f aca="false">AB67*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,15 +11692,15 @@
         <v>1</v>
       </c>
       <c r="Z68" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB68" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC68" s="0" t="n">
         <f aca="false">AB68*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,15 +11781,15 @@
         <v>1</v>
       </c>
       <c r="Z69" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB69" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC69" s="0" t="n">
         <f aca="false">AB69*90</f>
-        <v>270</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11870,15 +11870,15 @@
         <v>1</v>
       </c>
       <c r="Z70" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB70" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC70" s="0" t="n">
         <f aca="false">AB70*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,15 +11959,15 @@
         <v>1</v>
       </c>
       <c r="Z71" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB71" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC71" s="0" t="n">
         <f aca="false">AB71*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12048,15 +12048,15 @@
         <v>1</v>
       </c>
       <c r="Z72" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB72" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC72" s="0" t="n">
         <f aca="false">AB72*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12140,12 +12140,12 @@
         <v>450</v>
       </c>
       <c r="AB73" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC73" s="0" t="n">
         <f aca="false">AB73*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12226,15 +12226,15 @@
         <v>1</v>
       </c>
       <c r="Z74" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB74" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC74" s="0" t="n">
         <f aca="false">AB74*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12315,10 +12315,10 @@
         <v>1</v>
       </c>
       <c r="Z75" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB75" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC75" s="0" t="n">
@@ -12404,15 +12404,15 @@
         <v>1</v>
       </c>
       <c r="Z76" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB76" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC76" s="0" t="n">
         <f aca="false">AB76*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12493,15 +12493,15 @@
         <v>1</v>
       </c>
       <c r="Z77" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB77" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC77" s="0" t="n">
         <f aca="false">AB77*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12582,15 +12582,15 @@
         <v>1</v>
       </c>
       <c r="Z78" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB78" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC78" s="0" t="n">
         <f aca="false">AB78*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12674,7 +12674,7 @@
         <v>720</v>
       </c>
       <c r="AB79" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC79" s="0" t="n">
@@ -12760,15 +12760,15 @@
         <v>1</v>
       </c>
       <c r="Z80" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB80" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC80" s="0" t="n">
         <f aca="false">AB80*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,10 +12849,10 @@
         <v>1</v>
       </c>
       <c r="Z81" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB81" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC81" s="0" t="n">
@@ -12938,15 +12938,15 @@
         <v>1</v>
       </c>
       <c r="Z82" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB82" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC82" s="0" t="n">
         <f aca="false">AB82*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,15 +13027,15 @@
         <v>1</v>
       </c>
       <c r="Z83" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB83" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC83" s="0" t="n">
         <f aca="false">AB83*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,15 +13116,15 @@
         <v>1</v>
       </c>
       <c r="Z84" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB84" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC84" s="0" t="n">
         <f aca="false">AB84*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,15 +13205,15 @@
         <v>1</v>
       </c>
       <c r="Z85" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB85" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC85" s="0" t="n">
         <f aca="false">AB85*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13294,15 +13294,15 @@
         <v>1</v>
       </c>
       <c r="Z86" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB86" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC86" s="0" t="n">
         <f aca="false">AB86*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13383,15 +13383,15 @@
         <v>1</v>
       </c>
       <c r="Z87" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB87" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC87" s="0" t="n">
         <f aca="false">AB87*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13475,12 +13475,12 @@
         <v>540</v>
       </c>
       <c r="AB88" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC88" s="0" t="n">
         <f aca="false">AB88*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13561,15 +13561,15 @@
         <v>1</v>
       </c>
       <c r="Z89" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB89" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC89" s="0" t="n">
         <f aca="false">AB89*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13650,15 +13650,15 @@
         <v>1</v>
       </c>
       <c r="Z90" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB90" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC90" s="0" t="n">
         <f aca="false">AB90*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13739,10 +13739,10 @@
         <v>1</v>
       </c>
       <c r="Z91" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB91" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC91" s="0" t="n">
@@ -13828,15 +13828,15 @@
         <v>1</v>
       </c>
       <c r="Z92" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB92" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC92" s="0" t="n">
         <f aca="false">AB92*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13917,15 +13917,15 @@
         <v>1</v>
       </c>
       <c r="Z93" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB93" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC93" s="0" t="n">
         <f aca="false">AB93*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14006,15 +14006,15 @@
         <v>1</v>
       </c>
       <c r="Z94" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB94" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC94" s="0" t="n">
         <f aca="false">AB94*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14095,15 +14095,15 @@
         <v>1</v>
       </c>
       <c r="Z95" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB95" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC95" s="0" t="n">
         <f aca="false">AB95*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,15 +14184,15 @@
         <v>1</v>
       </c>
       <c r="Z96" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB96" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC96" s="0" t="n">
         <f aca="false">AB96*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,15 +14273,15 @@
         <v>1</v>
       </c>
       <c r="Z97" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB97" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC97" s="0" t="n">
         <f aca="false">AB97*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14362,15 +14362,15 @@
         <v>1</v>
       </c>
       <c r="Z98" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB98" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC98" s="0" t="n">
         <f aca="false">AB98*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14454,12 +14454,12 @@
         <v>540</v>
       </c>
       <c r="AB99" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC99" s="0" t="n">
         <f aca="false">AB99*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,15 +14540,15 @@
         <v>1</v>
       </c>
       <c r="Z100" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB100" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC100" s="0" t="n">
         <f aca="false">AB100*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14629,15 +14629,15 @@
         <v>1</v>
       </c>
       <c r="Z101" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB101" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC101" s="0" t="n">
         <f aca="false">AB101*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14718,15 +14718,15 @@
         <v>1</v>
       </c>
       <c r="Z102" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB102" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC102" s="0" t="n">
         <f aca="false">AB102*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,12 +14810,12 @@
         <v>720</v>
       </c>
       <c r="AB103" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC103" s="0" t="n">
         <f aca="false">AB103*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14896,10 +14896,10 @@
         <v>1</v>
       </c>
       <c r="Z104" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB104" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC104" s="0" t="n">
@@ -14985,15 +14985,15 @@
         <v>1</v>
       </c>
       <c r="Z105" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB105" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC105" s="0" t="n">
         <f aca="false">AB105*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15074,15 +15074,15 @@
         <v>1</v>
       </c>
       <c r="Z106" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB106" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC106" s="0" t="n">
         <f aca="false">AB106*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15166,12 +15166,12 @@
         <v>720</v>
       </c>
       <c r="AB107" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC107" s="0" t="n">
         <f aca="false">AB107*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15252,15 +15252,15 @@
         <v>1</v>
       </c>
       <c r="Z108" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB108" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC108" s="0" t="n">
         <f aca="false">AB108*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15341,15 +15341,15 @@
         <v>1</v>
       </c>
       <c r="Z109" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB109" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC109" s="0" t="n">
         <f aca="false">AB109*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15430,10 +15430,10 @@
         <v>1</v>
       </c>
       <c r="Z110" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB110" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC110" s="0" t="n">
@@ -15519,15 +15519,15 @@
         <v>1</v>
       </c>
       <c r="Z111" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB111" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC111" s="0" t="n">
         <f aca="false">AB111*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15608,15 +15608,15 @@
         <v>1</v>
       </c>
       <c r="Z112" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB112" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC112" s="0" t="n">
         <f aca="false">AB112*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15697,15 +15697,15 @@
         <v>1</v>
       </c>
       <c r="Z113" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB113" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC113" s="0" t="n">
         <f aca="false">AB113*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15786,15 +15786,15 @@
         <v>1</v>
       </c>
       <c r="Z114" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB114" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC114" s="0" t="n">
         <f aca="false">AB114*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15878,12 +15878,12 @@
         <v>630</v>
       </c>
       <c r="AB115" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC115" s="0" t="n">
         <f aca="false">AB115*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15964,10 +15964,10 @@
         <v>1</v>
       </c>
       <c r="Z116" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB116" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC116" s="0" t="n">
@@ -16053,15 +16053,15 @@
         <v>1</v>
       </c>
       <c r="Z117" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB117" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC117" s="0" t="n">
         <f aca="false">AB117*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16142,10 +16142,10 @@
         <v>1</v>
       </c>
       <c r="Z118" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB118" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC118" s="0" t="n">
@@ -16231,15 +16231,15 @@
         <v>1</v>
       </c>
       <c r="Z119" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB119" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC119" s="0" t="n">
         <f aca="false">AB119*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16320,15 +16320,15 @@
         <v>1</v>
       </c>
       <c r="Z120" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB120" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC120" s="0" t="n">
         <f aca="false">AB120*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16409,15 +16409,15 @@
         <v>1</v>
       </c>
       <c r="Z121" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB121" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC121" s="0" t="n">
         <f aca="false">AB121*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16501,12 +16501,12 @@
         <v>540</v>
       </c>
       <c r="AB122" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC122" s="0" t="n">
         <f aca="false">AB122*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16587,15 +16587,15 @@
         <v>1</v>
       </c>
       <c r="Z123" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB123" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC123" s="0" t="n">
         <f aca="false">AB123*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16676,10 +16676,10 @@
         <v>1</v>
       </c>
       <c r="Z124" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB124" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC124" s="0" t="n">
@@ -16765,15 +16765,15 @@
         <v>1</v>
       </c>
       <c r="Z125" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB125" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC125" s="0" t="n">
         <f aca="false">AB125*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16854,15 +16854,15 @@
         <v>1</v>
       </c>
       <c r="Z126" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB126" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC126" s="0" t="n">
         <f aca="false">AB126*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16943,15 +16943,15 @@
         <v>1</v>
       </c>
       <c r="Z127" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB127" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC127" s="0" t="n">
         <f aca="false">AB127*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17032,15 +17032,15 @@
         <v>1</v>
       </c>
       <c r="Z128" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB128" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC128" s="0" t="n">
         <f aca="false">AB128*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17121,15 +17121,15 @@
         <v>1</v>
       </c>
       <c r="Z129" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB129" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC129" s="0" t="n">
         <f aca="false">AB129*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17210,15 +17210,15 @@
         <v>1</v>
       </c>
       <c r="Z130" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB130" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC130" s="0" t="n">
         <f aca="false">AB130*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17299,15 +17299,15 @@
         <v>1</v>
       </c>
       <c r="Z131" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB131" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC131" s="0" t="n">
         <f aca="false">AB131*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17388,15 +17388,15 @@
         <v>1</v>
       </c>
       <c r="Z132" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB132" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC132" s="0" t="n">
         <f aca="false">AB132*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17477,15 +17477,15 @@
         <v>1</v>
       </c>
       <c r="Z133" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB133" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC133" s="0" t="n">
         <f aca="false">AB133*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17566,15 +17566,15 @@
         <v>1</v>
       </c>
       <c r="Z134" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB134" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC134" s="0" t="n">
         <f aca="false">AB134*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17658,12 +17658,12 @@
         <v>450</v>
       </c>
       <c r="AB135" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC135" s="0" t="n">
         <f aca="false">AB135*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17744,15 +17744,15 @@
         <v>1</v>
       </c>
       <c r="Z136" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB136" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC136" s="0" t="n">
         <f aca="false">AB136*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17833,15 +17833,15 @@
         <v>1</v>
       </c>
       <c r="Z137" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB137" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC137" s="0" t="n">
         <f aca="false">AB137*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17922,15 +17922,15 @@
         <v>1</v>
       </c>
       <c r="Z138" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB138" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC138" s="0" t="n">
         <f aca="false">AB138*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18011,15 +18011,15 @@
         <v>1</v>
       </c>
       <c r="Z139" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB139" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC139" s="0" t="n">
         <f aca="false">AB139*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18103,12 +18103,12 @@
         <v>540</v>
       </c>
       <c r="AB140" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC140" s="0" t="n">
         <f aca="false">AB140*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18189,15 +18189,15 @@
         <v>1</v>
       </c>
       <c r="Z141" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB141" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC141" s="0" t="n">
         <f aca="false">AB141*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18278,15 +18278,15 @@
         <v>1</v>
       </c>
       <c r="Z142" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB142" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC142" s="0" t="n">
         <f aca="false">AB142*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18367,15 +18367,15 @@
         <v>1</v>
       </c>
       <c r="Z143" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB143" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC143" s="0" t="n">
         <f aca="false">AB143*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18456,10 +18456,10 @@
         <v>1</v>
       </c>
       <c r="Z144" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB144" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC144" s="0" t="n">
@@ -18545,15 +18545,15 @@
         <v>1</v>
       </c>
       <c r="Z145" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB145" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC145" s="0" t="n">
         <f aca="false">AB145*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18634,15 +18634,15 @@
         <v>1</v>
       </c>
       <c r="Z146" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB146" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC146" s="0" t="n">
         <f aca="false">AB146*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18723,15 +18723,15 @@
         <v>1</v>
       </c>
       <c r="Z147" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB147" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC147" s="0" t="n">
         <f aca="false">AB147*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18815,12 +18815,12 @@
         <v>450</v>
       </c>
       <c r="AB148" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC148" s="0" t="n">
         <f aca="false">AB148*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18901,15 +18901,15 @@
         <v>1</v>
       </c>
       <c r="Z149" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB149" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC149" s="0" t="n">
         <f aca="false">AB149*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18990,15 +18990,15 @@
         <v>1</v>
       </c>
       <c r="Z150" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB150" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC150" s="0" t="n">
         <f aca="false">AB150*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19079,15 +19079,15 @@
         <v>1</v>
       </c>
       <c r="Z151" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB151" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC151" s="0" t="n">
         <f aca="false">AB151*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19168,15 +19168,15 @@
         <v>1</v>
       </c>
       <c r="Z152" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB152" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC152" s="0" t="n">
         <f aca="false">AB152*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19257,15 +19257,15 @@
         <v>1</v>
       </c>
       <c r="Z153" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB153" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC153" s="0" t="n">
         <f aca="false">AB153*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19349,12 +19349,12 @@
         <v>540</v>
       </c>
       <c r="AB154" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC154" s="0" t="n">
         <f aca="false">AB154*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19435,15 +19435,15 @@
         <v>1</v>
       </c>
       <c r="Z155" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB155" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC155" s="0" t="n">
         <f aca="false">AB155*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19524,15 +19524,15 @@
         <v>1</v>
       </c>
       <c r="Z156" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB156" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC156" s="0" t="n">
         <f aca="false">AB156*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19613,15 +19613,15 @@
         <v>1</v>
       </c>
       <c r="Z157" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB157" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC157" s="0" t="n">
         <f aca="false">AB157*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19702,10 +19702,10 @@
         <v>1</v>
       </c>
       <c r="Z158" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB158" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC158" s="0" t="n">
@@ -19791,15 +19791,15 @@
         <v>1</v>
       </c>
       <c r="Z159" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB159" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC159" s="0" t="n">
         <f aca="false">AB159*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19880,15 +19880,15 @@
         <v>1</v>
       </c>
       <c r="Z160" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB160" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC160" s="0" t="n">
         <f aca="false">AB160*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19969,15 +19969,15 @@
         <v>1</v>
       </c>
       <c r="Z161" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB161" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC161" s="0" t="n">
         <f aca="false">AB161*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20058,15 +20058,15 @@
         <v>1</v>
       </c>
       <c r="Z162" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB162" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC162" s="0" t="n">
         <f aca="false">AB162*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20147,15 +20147,15 @@
         <v>1</v>
       </c>
       <c r="Z163" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB163" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC163" s="0" t="n">
         <f aca="false">AB163*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20236,10 +20236,10 @@
         <v>1</v>
       </c>
       <c r="Z164" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB164" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC164" s="0" t="n">
@@ -20328,12 +20328,12 @@
         <v>630</v>
       </c>
       <c r="AB165" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC165" s="0" t="n">
         <f aca="false">AB165*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20414,15 +20414,15 @@
         <v>1</v>
       </c>
       <c r="Z166" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB166" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC166" s="0" t="n">
         <f aca="false">AB166*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20503,10 +20503,10 @@
         <v>1</v>
       </c>
       <c r="Z167" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB167" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC167" s="0" t="n">
@@ -20592,15 +20592,15 @@
         <v>1</v>
       </c>
       <c r="Z168" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB168" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC168" s="0" t="n">
         <f aca="false">AB168*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20681,15 +20681,15 @@
         <v>1</v>
       </c>
       <c r="Z169" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB169" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC169" s="0" t="n">
         <f aca="false">AB169*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20770,15 +20770,15 @@
         <v>1</v>
       </c>
       <c r="Z170" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB170" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC170" s="0" t="n">
         <f aca="false">AB170*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20859,15 +20859,15 @@
         <v>1</v>
       </c>
       <c r="Z171" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB171" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC171" s="0" t="n">
         <f aca="false">AB171*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20948,10 +20948,10 @@
         <v>1</v>
       </c>
       <c r="Z172" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB172" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC172" s="0" t="n">
@@ -21037,15 +21037,15 @@
         <v>1</v>
       </c>
       <c r="Z173" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB173" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC173" s="0" t="n">
         <f aca="false">AB173*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21126,15 +21126,15 @@
         <v>1</v>
       </c>
       <c r="Z174" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB174" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC174" s="0" t="n">
         <f aca="false">AB174*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21215,15 +21215,15 @@
         <v>1</v>
       </c>
       <c r="Z175" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB175" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC175" s="0" t="n">
         <f aca="false">AB175*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21304,15 +21304,15 @@
         <v>1</v>
       </c>
       <c r="Z176" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB176" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC176" s="0" t="n">
         <f aca="false">AB176*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21393,15 +21393,15 @@
         <v>1</v>
       </c>
       <c r="Z177" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB177" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC177" s="0" t="n">
         <f aca="false">AB177*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21482,15 +21482,15 @@
         <v>1</v>
       </c>
       <c r="Z178" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB178" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC178" s="0" t="n">
         <f aca="false">AB178*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21571,15 +21571,15 @@
         <v>1</v>
       </c>
       <c r="Z179" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB179" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC179" s="0" t="n">
         <f aca="false">AB179*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21660,15 +21660,15 @@
         <v>1</v>
       </c>
       <c r="Z180" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB180" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC180" s="0" t="n">
         <f aca="false">AB180*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21749,15 +21749,15 @@
         <v>1</v>
       </c>
       <c r="Z181" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB181" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC181" s="0" t="n">
         <f aca="false">AB181*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21838,15 +21838,15 @@
         <v>1</v>
       </c>
       <c r="Z182" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB182" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC182" s="0" t="n">
         <f aca="false">AB182*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21930,12 +21930,12 @@
         <v>720</v>
       </c>
       <c r="AB183" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC183" s="0" t="n">
         <f aca="false">AB183*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22016,15 +22016,15 @@
         <v>1</v>
       </c>
       <c r="Z184" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB184" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC184" s="0" t="n">
         <f aca="false">AB184*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22105,15 +22105,15 @@
         <v>1</v>
       </c>
       <c r="Z185" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB185" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC185" s="0" t="n">
         <f aca="false">AB185*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22197,7 +22197,7 @@
         <v>720</v>
       </c>
       <c r="AB186" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC186" s="0" t="n">
@@ -22283,10 +22283,10 @@
         <v>1</v>
       </c>
       <c r="Z187" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB187" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC187" s="0" t="n">
@@ -22372,10 +22372,10 @@
         <v>1</v>
       </c>
       <c r="Z188" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB188" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC188" s="0" t="n">
@@ -22461,10 +22461,10 @@
         <v>1</v>
       </c>
       <c r="Z189" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB189" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC189" s="0" t="n">
@@ -22550,15 +22550,15 @@
         <v>1</v>
       </c>
       <c r="Z190" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB190" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC190" s="0" t="n">
         <f aca="false">AB190*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22639,15 +22639,15 @@
         <v>1</v>
       </c>
       <c r="Z191" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB191" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC191" s="0" t="n">
         <f aca="false">AB191*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22728,15 +22728,15 @@
         <v>1</v>
       </c>
       <c r="Z192" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB192" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC192" s="0" t="n">
         <f aca="false">AB192*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22817,15 +22817,15 @@
         <v>1</v>
       </c>
       <c r="Z193" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB193" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC193" s="0" t="n">
         <f aca="false">AB193*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22906,10 +22906,10 @@
         <v>1</v>
       </c>
       <c r="Z194" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB194" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC194" s="0" t="n">
@@ -22995,15 +22995,15 @@
         <v>1</v>
       </c>
       <c r="Z195" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB195" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC195" s="0" t="n">
         <f aca="false">AB195*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23084,15 +23084,15 @@
         <v>1</v>
       </c>
       <c r="Z196" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB196" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC196" s="0" t="n">
         <f aca="false">AB196*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23173,15 +23173,15 @@
         <v>1</v>
       </c>
       <c r="Z197" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB197" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC197" s="0" t="n">
         <f aca="false">AB197*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23262,15 +23262,15 @@
         <v>1</v>
       </c>
       <c r="Z198" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB198" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC198" s="0" t="n">
         <f aca="false">AB198*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23351,15 +23351,15 @@
         <v>1</v>
       </c>
       <c r="Z199" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB199" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC199" s="0" t="n">
         <f aca="false">AB199*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23440,15 +23440,15 @@
         <v>1</v>
       </c>
       <c r="Z200" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB200" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC200" s="0" t="n">
         <f aca="false">AB200*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23529,15 +23529,15 @@
         <v>1</v>
       </c>
       <c r="Z201" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB201" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC201" s="0" t="n">
         <f aca="false">AB201*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23618,15 +23618,15 @@
         <v>1</v>
       </c>
       <c r="Z202" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB202" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC202" s="0" t="n">
         <f aca="false">AB202*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23707,15 +23707,15 @@
         <v>1</v>
       </c>
       <c r="Z203" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB203" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC203" s="0" t="n">
         <f aca="false">AB203*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23796,15 +23796,15 @@
         <v>1</v>
       </c>
       <c r="Z204" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB204" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC204" s="0" t="n">
         <f aca="false">AB204*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23888,12 +23888,12 @@
         <v>540</v>
       </c>
       <c r="AB205" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC205" s="0" t="n">
         <f aca="false">AB205*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23974,15 +23974,15 @@
         <v>1</v>
       </c>
       <c r="Z206" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB206" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC206" s="0" t="n">
         <f aca="false">AB206*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24063,15 +24063,15 @@
         <v>1</v>
       </c>
       <c r="Z207" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB207" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC207" s="0" t="n">
         <f aca="false">AB207*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24152,10 +24152,10 @@
         <v>1</v>
       </c>
       <c r="Z208" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB208" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC208" s="0" t="n">
@@ -24241,15 +24241,15 @@
         <v>1</v>
       </c>
       <c r="Z209" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB209" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC209" s="0" t="n">
         <f aca="false">AB209*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24330,15 +24330,15 @@
         <v>1</v>
       </c>
       <c r="Z210" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB210" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC210" s="0" t="n">
         <f aca="false">AB210*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24419,15 +24419,15 @@
         <v>1</v>
       </c>
       <c r="Z211" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB211" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC211" s="0" t="n">
         <f aca="false">AB211*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24508,10 +24508,10 @@
         <v>1</v>
       </c>
       <c r="Z212" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB212" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC212" s="0" t="n">
@@ -24597,10 +24597,10 @@
         <v>1</v>
       </c>
       <c r="Z213" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB213" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC213" s="0" t="n">
@@ -24686,15 +24686,15 @@
         <v>1</v>
       </c>
       <c r="Z214" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB214" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC214" s="0" t="n">
         <f aca="false">AB214*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24775,15 +24775,15 @@
         <v>1</v>
       </c>
       <c r="Z215" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB215" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC215" s="0" t="n">
         <f aca="false">AB215*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24864,15 +24864,15 @@
         <v>1</v>
       </c>
       <c r="Z216" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB216" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC216" s="0" t="n">
         <f aca="false">AB216*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24953,15 +24953,15 @@
         <v>1</v>
       </c>
       <c r="Z217" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB217" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC217" s="0" t="n">
         <f aca="false">AB217*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25042,15 +25042,15 @@
         <v>1</v>
       </c>
       <c r="Z218" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB218" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC218" s="0" t="n">
         <f aca="false">AB218*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25131,15 +25131,15 @@
         <v>1</v>
       </c>
       <c r="Z219" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB219" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC219" s="0" t="n">
         <f aca="false">AB219*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25220,15 +25220,15 @@
         <v>1</v>
       </c>
       <c r="Z220" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB220" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC220" s="0" t="n">
         <f aca="false">AB220*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25309,15 +25309,15 @@
         <v>1</v>
       </c>
       <c r="Z221" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB221" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC221" s="0" t="n">
         <f aca="false">AB221*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25398,15 +25398,15 @@
         <v>1</v>
       </c>
       <c r="Z222" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB222" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC222" s="0" t="n">
         <f aca="false">AB222*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25487,15 +25487,15 @@
         <v>1</v>
       </c>
       <c r="Z223" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB223" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC223" s="0" t="n">
         <f aca="false">AB223*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25576,15 +25576,15 @@
         <v>1</v>
       </c>
       <c r="Z224" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB224" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC224" s="0" t="n">
         <f aca="false">AB224*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25665,15 +25665,15 @@
         <v>1</v>
       </c>
       <c r="Z225" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB225" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC225" s="0" t="n">
         <f aca="false">AB225*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25754,15 +25754,15 @@
         <v>1</v>
       </c>
       <c r="Z226" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB226" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC226" s="0" t="n">
         <f aca="false">AB226*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25843,15 +25843,15 @@
         <v>1</v>
       </c>
       <c r="Z227" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB227" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC227" s="0" t="n">
         <f aca="false">AB227*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25935,12 +25935,12 @@
         <v>720</v>
       </c>
       <c r="AB228" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC228" s="0" t="n">
         <f aca="false">AB228*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26021,15 +26021,15 @@
         <v>1</v>
       </c>
       <c r="Z229" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB229" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC229" s="0" t="n">
         <f aca="false">AB229*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26110,15 +26110,15 @@
         <v>1</v>
       </c>
       <c r="Z230" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB230" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC230" s="0" t="n">
         <f aca="false">AB230*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26202,12 +26202,12 @@
         <v>630</v>
       </c>
       <c r="AB231" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC231" s="0" t="n">
         <f aca="false">AB231*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26288,15 +26288,15 @@
         <v>1</v>
       </c>
       <c r="Z232" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB232" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC232" s="0" t="n">
         <f aca="false">AB232*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26377,15 +26377,15 @@
         <v>1</v>
       </c>
       <c r="Z233" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB233" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC233" s="0" t="n">
         <f aca="false">AB233*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26466,15 +26466,15 @@
         <v>1</v>
       </c>
       <c r="Z234" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB234" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC234" s="0" t="n">
         <f aca="false">AB234*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26555,15 +26555,15 @@
         <v>1</v>
       </c>
       <c r="Z235" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB235" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC235" s="0" t="n">
         <f aca="false">AB235*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26644,15 +26644,15 @@
         <v>1</v>
       </c>
       <c r="Z236" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB236" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC236" s="0" t="n">
         <f aca="false">AB236*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26733,15 +26733,15 @@
         <v>1</v>
       </c>
       <c r="Z237" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB237" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC237" s="0" t="n">
         <f aca="false">AB237*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26822,15 +26822,15 @@
         <v>1</v>
       </c>
       <c r="Z238" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB238" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC238" s="0" t="n">
         <f aca="false">AB238*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26911,15 +26911,15 @@
         <v>1</v>
       </c>
       <c r="Z239" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB239" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC239" s="0" t="n">
         <f aca="false">AB239*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27000,15 +27000,15 @@
         <v>1</v>
       </c>
       <c r="Z240" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB240" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC240" s="0" t="n">
         <f aca="false">AB240*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27089,15 +27089,15 @@
         <v>1</v>
       </c>
       <c r="Z241" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB241" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC241" s="0" t="n">
         <f aca="false">AB241*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27178,15 +27178,15 @@
         <v>1</v>
       </c>
       <c r="Z242" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB242" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC242" s="0" t="n">
         <f aca="false">AB242*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27267,15 +27267,15 @@
         <v>1</v>
       </c>
       <c r="Z243" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB243" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC243" s="0" t="n">
         <f aca="false">AB243*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27356,15 +27356,15 @@
         <v>1</v>
       </c>
       <c r="Z244" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB244" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC244" s="0" t="n">
         <f aca="false">AB244*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27445,15 +27445,15 @@
         <v>1</v>
       </c>
       <c r="Z245" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB245" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC245" s="0" t="n">
         <f aca="false">AB245*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27534,10 +27534,10 @@
         <v>1</v>
       </c>
       <c r="Z246" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB246" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC246" s="0" t="n">
@@ -27626,12 +27626,12 @@
         <v>630</v>
       </c>
       <c r="AB247" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC247" s="0" t="n">
         <f aca="false">AB247*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27712,15 +27712,15 @@
         <v>1</v>
       </c>
       <c r="Z248" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB248" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC248" s="0" t="n">
         <f aca="false">AB248*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27804,12 +27804,12 @@
         <v>540</v>
       </c>
       <c r="AB249" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC249" s="0" t="n">
         <f aca="false">AB249*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27890,10 +27890,10 @@
         <v>1</v>
       </c>
       <c r="Z250" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB250" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC250" s="0" t="n">
@@ -27979,15 +27979,15 @@
         <v>1</v>
       </c>
       <c r="Z251" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB251" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC251" s="0" t="n">
         <f aca="false">AB251*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28068,15 +28068,15 @@
         <v>1</v>
       </c>
       <c r="Z252" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB252" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC252" s="0" t="n">
         <f aca="false">AB252*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28157,15 +28157,15 @@
         <v>1</v>
       </c>
       <c r="Z253" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB253" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC253" s="0" t="n">
         <f aca="false">AB253*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28249,12 +28249,12 @@
         <v>630</v>
       </c>
       <c r="AB254" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC254" s="0" t="n">
         <f aca="false">AB254*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28335,15 +28335,15 @@
         <v>1</v>
       </c>
       <c r="Z255" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB255" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC255" s="0" t="n">
         <f aca="false">AB255*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28424,15 +28424,15 @@
         <v>1</v>
       </c>
       <c r="Z256" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB256" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC256" s="0" t="n">
         <f aca="false">AB256*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28513,10 +28513,10 @@
         <v>1</v>
       </c>
       <c r="Z257" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB257" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC257" s="0" t="n">
@@ -28602,10 +28602,10 @@
         <v>1</v>
       </c>
       <c r="Z258" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB258" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC258" s="0" t="n">
@@ -28691,15 +28691,15 @@
         <v>1</v>
       </c>
       <c r="Z259" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB259" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC259" s="0" t="n">
         <f aca="false">AB259*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28780,15 +28780,15 @@
         <v>1</v>
       </c>
       <c r="Z260" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB260" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC260" s="0" t="n">
         <f aca="false">AB260*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28869,15 +28869,15 @@
         <v>1</v>
       </c>
       <c r="Z261" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB261" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC261" s="0" t="n">
         <f aca="false">AB261*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28958,15 +28958,15 @@
         <v>1</v>
       </c>
       <c r="Z262" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB262" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC262" s="0" t="n">
         <f aca="false">AB262*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29047,10 +29047,10 @@
         <v>1</v>
       </c>
       <c r="Z263" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB263" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC263" s="0" t="n">
@@ -29136,15 +29136,15 @@
         <v>1</v>
       </c>
       <c r="Z264" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB264" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC264" s="0" t="n">
         <f aca="false">AB264*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29225,15 +29225,15 @@
         <v>1</v>
       </c>
       <c r="Z265" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB265" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC265" s="0" t="n">
         <f aca="false">AB265*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29314,15 +29314,15 @@
         <v>1</v>
       </c>
       <c r="Z266" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB266" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC266" s="0" t="n">
         <f aca="false">AB266*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29406,12 +29406,12 @@
         <v>540</v>
       </c>
       <c r="AB267" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC267" s="0" t="n">
         <f aca="false">AB267*90</f>
-        <v>270</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29492,15 +29492,15 @@
         <v>1</v>
       </c>
       <c r="Z268" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB268" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC268" s="0" t="n">
         <f aca="false">AB268*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29581,15 +29581,15 @@
         <v>1</v>
       </c>
       <c r="Z269" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB269" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC269" s="0" t="n">
         <f aca="false">AB269*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29670,15 +29670,15 @@
         <v>1</v>
       </c>
       <c r="Z270" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB270" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC270" s="0" t="n">
         <f aca="false">AB270*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29759,15 +29759,15 @@
         <v>1</v>
       </c>
       <c r="Z271" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB271" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC271" s="0" t="n">
         <f aca="false">AB271*90</f>
-        <v>270</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29848,15 +29848,15 @@
         <v>1</v>
       </c>
       <c r="Z272" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB272" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC272" s="0" t="n">
         <f aca="false">AB272*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29940,12 +29940,12 @@
         <v>450</v>
       </c>
       <c r="AB273" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC273" s="0" t="n">
         <f aca="false">AB273*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30026,15 +30026,15 @@
         <v>1</v>
       </c>
       <c r="Z274" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB274" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC274" s="0" t="n">
         <f aca="false">AB274*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30115,15 +30115,15 @@
         <v>1</v>
       </c>
       <c r="Z275" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB275" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC275" s="0" t="n">
         <f aca="false">AB275*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30204,15 +30204,15 @@
         <v>1</v>
       </c>
       <c r="Z276" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB276" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC276" s="0" t="n">
         <f aca="false">AB276*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30293,15 +30293,15 @@
         <v>1</v>
       </c>
       <c r="Z277" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB277" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC277" s="0" t="n">
         <f aca="false">AB277*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30385,12 +30385,12 @@
         <v>630</v>
       </c>
       <c r="AB278" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC278" s="0" t="n">
         <f aca="false">AB278*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30474,12 +30474,12 @@
         <v>630</v>
       </c>
       <c r="AB279" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC279" s="0" t="n">
         <f aca="false">AB279*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30560,15 +30560,15 @@
         <v>1</v>
       </c>
       <c r="Z280" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB280" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC280" s="0" t="n">
         <f aca="false">AB280*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30649,15 +30649,15 @@
         <v>1</v>
       </c>
       <c r="Z281" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB281" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC281" s="0" t="n">
         <f aca="false">AB281*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30738,15 +30738,15 @@
         <v>1</v>
       </c>
       <c r="Z282" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB282" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC282" s="0" t="n">
         <f aca="false">AB282*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30827,15 +30827,15 @@
         <v>1</v>
       </c>
       <c r="Z283" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB283" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC283" s="0" t="n">
         <f aca="false">AB283*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30919,12 +30919,12 @@
         <v>540</v>
       </c>
       <c r="AB284" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC284" s="0" t="n">
         <f aca="false">AB284*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31005,15 +31005,15 @@
         <v>1</v>
       </c>
       <c r="Z285" s="0" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AB285" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC285" s="0" t="n">
         <f aca="false">AB285*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31094,15 +31094,15 @@
         <v>1</v>
       </c>
       <c r="Z286" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB286" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC286" s="0" t="n">
         <f aca="false">AB286*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31183,15 +31183,15 @@
         <v>1</v>
       </c>
       <c r="Z287" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB287" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC287" s="0" t="n">
         <f aca="false">AB287*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31275,12 +31275,12 @@
         <v>540</v>
       </c>
       <c r="AB288" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC288" s="0" t="n">
         <f aca="false">AB288*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31361,15 +31361,15 @@
         <v>1</v>
       </c>
       <c r="Z289" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB289" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC289" s="0" t="n">
         <f aca="false">AB289*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31453,12 +31453,12 @@
         <v>720</v>
       </c>
       <c r="AB290" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC290" s="0" t="n">
         <f aca="false">AB290*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31539,15 +31539,15 @@
         <v>1</v>
       </c>
       <c r="Z291" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB291" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC291" s="0" t="n">
         <f aca="false">AB291*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31628,15 +31628,15 @@
         <v>1</v>
       </c>
       <c r="Z292" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB292" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC292" s="0" t="n">
         <f aca="false">AB292*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31717,15 +31717,15 @@
         <v>1</v>
       </c>
       <c r="Z293" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB293" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC293" s="0" t="n">
         <f aca="false">AB293*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31806,15 +31806,15 @@
         <v>1</v>
       </c>
       <c r="Z294" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB294" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC294" s="0" t="n">
         <f aca="false">AB294*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31895,15 +31895,15 @@
         <v>1</v>
       </c>
       <c r="Z295" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB295" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC295" s="0" t="n">
         <f aca="false">AB295*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31984,15 +31984,15 @@
         <v>1</v>
       </c>
       <c r="Z296" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB296" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC296" s="0" t="n">
         <f aca="false">AB296*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32073,15 +32073,15 @@
         <v>1</v>
       </c>
       <c r="Z297" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB297" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC297" s="0" t="n">
         <f aca="false">AB297*90</f>
-        <v>360</v>
+        <v>630</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32162,15 +32162,15 @@
         <v>1</v>
       </c>
       <c r="Z298" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB298" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC298" s="0" t="n">
         <f aca="false">AB298*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32251,15 +32251,15 @@
         <v>1</v>
       </c>
       <c r="Z299" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB299" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC299" s="0" t="n">
         <f aca="false">AB299*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32340,15 +32340,15 @@
         <v>1</v>
       </c>
       <c r="Z300" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB300" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC300" s="0" t="n">
         <f aca="false">AB300*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32429,15 +32429,15 @@
         <v>1</v>
       </c>
       <c r="Z301" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB301" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC301" s="0" t="n">
         <f aca="false">AB301*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32518,15 +32518,15 @@
         <v>1</v>
       </c>
       <c r="Z302" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB302" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC302" s="0" t="n">
         <f aca="false">AB302*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32607,15 +32607,15 @@
         <v>1</v>
       </c>
       <c r="Z303" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB303" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC303" s="0" t="n">
         <f aca="false">AB303*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32699,7 +32699,7 @@
         <v>630</v>
       </c>
       <c r="AB304" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC304" s="0" t="n">
@@ -32785,15 +32785,15 @@
         <v>1</v>
       </c>
       <c r="Z305" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB305" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC305" s="0" t="n">
         <f aca="false">AB305*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32874,15 +32874,15 @@
         <v>1</v>
       </c>
       <c r="Z306" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB306" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC306" s="0" t="n">
         <f aca="false">AB306*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32963,15 +32963,15 @@
         <v>1</v>
       </c>
       <c r="Z307" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB307" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC307" s="0" t="n">
         <f aca="false">AB307*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33052,10 +33052,10 @@
         <v>1</v>
       </c>
       <c r="Z308" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB308" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC308" s="0" t="n">
@@ -33141,15 +33141,15 @@
         <v>1</v>
       </c>
       <c r="Z309" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB309" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC309" s="0" t="n">
         <f aca="false">AB309*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33230,15 +33230,15 @@
         <v>1</v>
       </c>
       <c r="Z310" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB310" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC310" s="0" t="n">
         <f aca="false">AB310*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33319,15 +33319,15 @@
         <v>1</v>
       </c>
       <c r="Z311" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB311" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC311" s="0" t="n">
         <f aca="false">AB311*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33408,15 +33408,15 @@
         <v>1</v>
       </c>
       <c r="Z312" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB312" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC312" s="0" t="n">
         <f aca="false">AB312*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33497,15 +33497,15 @@
         <v>1</v>
       </c>
       <c r="Z313" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB313" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC313" s="0" t="n">
         <f aca="false">AB313*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33586,10 +33586,10 @@
         <v>1</v>
       </c>
       <c r="Z314" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB314" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC314" s="0" t="n">
@@ -33675,15 +33675,15 @@
         <v>1</v>
       </c>
       <c r="Z315" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB315" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC315" s="0" t="n">
         <f aca="false">AB315*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33767,12 +33767,12 @@
         <v>630</v>
       </c>
       <c r="AB316" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC316" s="0" t="n">
         <f aca="false">AB316*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33853,10 +33853,10 @@
         <v>1</v>
       </c>
       <c r="Z317" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB317" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC317" s="0" t="n">
@@ -33942,15 +33942,15 @@
         <v>1</v>
       </c>
       <c r="Z318" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB318" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC318" s="0" t="n">
         <f aca="false">AB318*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,15 +34031,15 @@
         <v>1</v>
       </c>
       <c r="Z319" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB319" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC319" s="0" t="n">
         <f aca="false">AB319*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34120,15 +34120,15 @@
         <v>1</v>
       </c>
       <c r="Z320" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB320" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC320" s="0" t="n">
         <f aca="false">AB320*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34209,15 +34209,15 @@
         <v>1</v>
       </c>
       <c r="Z321" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB321" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC321" s="0" t="n">
         <f aca="false">AB321*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34298,10 +34298,10 @@
         <v>1</v>
       </c>
       <c r="Z322" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB322" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC322" s="0" t="n">
@@ -34387,10 +34387,10 @@
         <v>1</v>
       </c>
       <c r="Z323" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB323" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC323" s="0" t="n">
@@ -34476,15 +34476,15 @@
         <v>1</v>
       </c>
       <c r="Z324" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB324" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC324" s="0" t="n">
         <f aca="false">AB324*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34568,12 +34568,12 @@
         <v>630</v>
       </c>
       <c r="AB325" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC325" s="0" t="n">
         <f aca="false">AB325*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34654,10 +34654,10 @@
         <v>1</v>
       </c>
       <c r="Z326" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB326" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC326" s="0" t="n">
@@ -34743,15 +34743,15 @@
         <v>1</v>
       </c>
       <c r="Z327" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB327" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC327" s="0" t="n">
         <f aca="false">AB327*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34832,15 +34832,15 @@
         <v>1</v>
       </c>
       <c r="Z328" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB328" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC328" s="0" t="n">
         <f aca="false">AB328*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34924,12 +34924,12 @@
         <v>720</v>
       </c>
       <c r="AB329" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC329" s="0" t="n">
         <f aca="false">AB329*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35013,12 +35013,12 @@
         <v>720</v>
       </c>
       <c r="AB330" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC330" s="0" t="n">
         <f aca="false">AB330*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35102,7 +35102,7 @@
         <v>450</v>
       </c>
       <c r="AB331" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC331" s="0" t="n">
@@ -35191,12 +35191,12 @@
         <v>720</v>
       </c>
       <c r="AB332" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC332" s="0" t="n">
         <f aca="false">AB332*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35277,15 +35277,15 @@
         <v>1</v>
       </c>
       <c r="Z333" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB333" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC333" s="0" t="n">
         <f aca="false">AB333*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35369,12 +35369,12 @@
         <v>720</v>
       </c>
       <c r="AB334" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC334" s="0" t="n">
         <f aca="false">AB334*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35455,15 +35455,15 @@
         <v>1</v>
       </c>
       <c r="Z335" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB335" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC335" s="0" t="n">
         <f aca="false">AB335*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35544,15 +35544,15 @@
         <v>1</v>
       </c>
       <c r="Z336" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB336" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC336" s="0" t="n">
         <f aca="false">AB336*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35633,15 +35633,15 @@
         <v>1</v>
       </c>
       <c r="Z337" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB337" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC337" s="0" t="n">
         <f aca="false">AB337*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35722,15 +35722,15 @@
         <v>1</v>
       </c>
       <c r="Z338" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB338" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC338" s="0" t="n">
         <f aca="false">AB338*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35811,15 +35811,15 @@
         <v>1</v>
       </c>
       <c r="Z339" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB339" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC339" s="0" t="n">
         <f aca="false">AB339*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35900,15 +35900,15 @@
         <v>1</v>
       </c>
       <c r="Z340" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB340" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC340" s="0" t="n">
         <f aca="false">AB340*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35989,15 +35989,15 @@
         <v>1</v>
       </c>
       <c r="Z341" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB341" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC341" s="0" t="n">
         <f aca="false">AB341*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36078,15 +36078,15 @@
         <v>1</v>
       </c>
       <c r="Z342" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB342" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC342" s="0" t="n">
         <f aca="false">AB342*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36167,15 +36167,15 @@
         <v>1</v>
       </c>
       <c r="Z343" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB343" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC343" s="0" t="n">
         <f aca="false">AB343*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36256,15 +36256,15 @@
         <v>1</v>
       </c>
       <c r="Z344" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB344" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC344" s="0" t="n">
         <f aca="false">AB344*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36345,15 +36345,15 @@
         <v>1</v>
       </c>
       <c r="Z345" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB345" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC345" s="0" t="n">
         <f aca="false">AB345*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36434,15 +36434,15 @@
         <v>1</v>
       </c>
       <c r="Z346" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB346" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC346" s="0" t="n">
         <f aca="false">AB346*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36523,15 +36523,15 @@
         <v>1</v>
       </c>
       <c r="Z347" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB347" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC347" s="0" t="n">
         <f aca="false">AB347*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36612,15 +36612,15 @@
         <v>1</v>
       </c>
       <c r="Z348" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB348" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC348" s="0" t="n">
         <f aca="false">AB348*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36701,15 +36701,15 @@
         <v>1</v>
       </c>
       <c r="Z349" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB349" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC349" s="0" t="n">
         <f aca="false">AB349*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36790,15 +36790,15 @@
         <v>1</v>
       </c>
       <c r="Z350" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB350" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC350" s="0" t="n">
         <f aca="false">AB350*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36879,15 +36879,15 @@
         <v>1</v>
       </c>
       <c r="Z351" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB351" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC351" s="0" t="n">
         <f aca="false">AB351*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36968,15 +36968,15 @@
         <v>1</v>
       </c>
       <c r="Z352" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB352" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC352" s="0" t="n">
         <f aca="false">AB352*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37057,15 +37057,15 @@
         <v>1</v>
       </c>
       <c r="Z353" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB353" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC353" s="0" t="n">
         <f aca="false">AB353*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37146,15 +37146,15 @@
         <v>1</v>
       </c>
       <c r="Z354" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB354" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC354" s="0" t="n">
         <f aca="false">AB354*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37235,10 +37235,10 @@
         <v>1</v>
       </c>
       <c r="Z355" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB355" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC355" s="0" t="n">
@@ -37324,10 +37324,10 @@
         <v>1</v>
       </c>
       <c r="Z356" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB356" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC356" s="0" t="n">
@@ -37413,15 +37413,15 @@
         <v>1</v>
       </c>
       <c r="Z357" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB357" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC357" s="0" t="n">
         <f aca="false">AB357*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37502,15 +37502,15 @@
         <v>1</v>
       </c>
       <c r="Z358" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB358" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC358" s="0" t="n">
         <f aca="false">AB358*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37591,15 +37591,15 @@
         <v>1</v>
       </c>
       <c r="Z359" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB359" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC359" s="0" t="n">
         <f aca="false">AB359*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37680,15 +37680,15 @@
         <v>1</v>
       </c>
       <c r="Z360" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB360" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC360" s="0" t="n">
         <f aca="false">AB360*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37769,15 +37769,15 @@
         <v>1</v>
       </c>
       <c r="Z361" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB361" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC361" s="0" t="n">
         <f aca="false">AB361*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37858,15 +37858,15 @@
         <v>1</v>
       </c>
       <c r="Z362" s="0" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="AB362" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC362" s="0" t="n">
         <f aca="false">AB362*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37947,15 +37947,15 @@
         <v>1</v>
       </c>
       <c r="Z363" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB363" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC363" s="0" t="n">
         <f aca="false">AB363*90</f>
-        <v>270</v>
+        <v>630</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38036,15 +38036,15 @@
         <v>1</v>
       </c>
       <c r="Z364" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB364" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC364" s="0" t="n">
         <f aca="false">AB364*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38125,15 +38125,15 @@
         <v>1</v>
       </c>
       <c r="Z365" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB365" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC365" s="0" t="n">
         <f aca="false">AB365*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38214,10 +38214,10 @@
         <v>1</v>
       </c>
       <c r="Z366" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB366" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC366" s="0" t="n">
@@ -38303,15 +38303,15 @@
         <v>1</v>
       </c>
       <c r="Z367" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB367" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC367" s="0" t="n">
         <f aca="false">AB367*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38392,10 +38392,10 @@
         <v>1</v>
       </c>
       <c r="Z368" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB368" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC368" s="0" t="n">
@@ -38481,15 +38481,15 @@
         <v>1</v>
       </c>
       <c r="Z369" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB369" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC369" s="0" t="n">
         <f aca="false">AB369*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38570,15 +38570,15 @@
         <v>1</v>
       </c>
       <c r="Z370" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB370" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC370" s="0" t="n">
         <f aca="false">AB370*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38659,15 +38659,15 @@
         <v>1</v>
       </c>
       <c r="Z371" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="AB371" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC371" s="0" t="n">
         <f aca="false">AB371*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38748,15 +38748,15 @@
         <v>1</v>
       </c>
       <c r="Z372" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB372" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC372" s="0" t="n">
         <f aca="false">AB372*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38837,15 +38837,15 @@
         <v>1</v>
       </c>
       <c r="Z373" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB373" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC373" s="0" t="n">
         <f aca="false">AB373*90</f>
-        <v>360</v>
+        <v>630</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38929,12 +38929,12 @@
         <v>540</v>
       </c>
       <c r="AB374" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC374" s="0" t="n">
         <f aca="false">AB374*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39018,12 +39018,12 @@
         <v>450</v>
       </c>
       <c r="AB375" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC375" s="0" t="n">
         <f aca="false">AB375*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39104,15 +39104,15 @@
         <v>1</v>
       </c>
       <c r="Z376" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB376" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC376" s="0" t="n">
         <f aca="false">AB376*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39193,15 +39193,15 @@
         <v>1</v>
       </c>
       <c r="Z377" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB377" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC377" s="0" t="n">
         <f aca="false">AB377*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39282,15 +39282,15 @@
         <v>1</v>
       </c>
       <c r="Z378" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB378" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC378" s="0" t="n">
         <f aca="false">AB378*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39371,15 +39371,15 @@
         <v>1</v>
       </c>
       <c r="Z379" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB379" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC379" s="0" t="n">
         <f aca="false">AB379*90</f>
-        <v>450</v>
+        <v>720</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39460,10 +39460,10 @@
         <v>1</v>
       </c>
       <c r="Z380" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB380" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC380" s="0" t="n">
@@ -39549,15 +39549,15 @@
         <v>1</v>
       </c>
       <c r="Z381" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB381" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC381" s="0" t="n">
         <f aca="false">AB381*90</f>
-        <v>180</v>
+        <v>720</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39638,15 +39638,15 @@
         <v>1</v>
       </c>
       <c r="Z382" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB382" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC382" s="0" t="n">
         <f aca="false">AB382*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39727,15 +39727,15 @@
         <v>1</v>
       </c>
       <c r="Z383" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB383" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC383" s="0" t="n">
         <f aca="false">AB383*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39819,12 +39819,12 @@
         <v>630</v>
       </c>
       <c r="AB384" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC384" s="0" t="n">
         <f aca="false">AB384*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39905,15 +39905,15 @@
         <v>1</v>
       </c>
       <c r="Z385" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB385" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC385" s="0" t="n">
         <f aca="false">AB385*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39994,15 +39994,15 @@
         <v>1</v>
       </c>
       <c r="Z386" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB386" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC386" s="0" t="n">
         <f aca="false">AB386*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40083,15 +40083,15 @@
         <v>1</v>
       </c>
       <c r="Z387" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB387" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC387" s="0" t="n">
         <f aca="false">AB387*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40172,15 +40172,15 @@
         <v>1</v>
       </c>
       <c r="Z388" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB388" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC388" s="0" t="n">
         <f aca="false">AB388*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40261,15 +40261,15 @@
         <v>1</v>
       </c>
       <c r="Z389" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB389" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC389" s="0" t="n">
         <f aca="false">AB389*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40350,15 +40350,15 @@
         <v>1</v>
       </c>
       <c r="Z390" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB390" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC390" s="0" t="n">
         <f aca="false">AB390*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40439,15 +40439,15 @@
         <v>1</v>
       </c>
       <c r="Z391" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB391" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC391" s="0" t="n">
         <f aca="false">AB391*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40531,12 +40531,12 @@
         <v>720</v>
       </c>
       <c r="AB392" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC392" s="0" t="n">
         <f aca="false">AB392*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40617,15 +40617,15 @@
         <v>1</v>
       </c>
       <c r="Z393" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB393" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC393" s="0" t="n">
         <f aca="false">AB393*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40706,15 +40706,15 @@
         <v>1</v>
       </c>
       <c r="Z394" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB394" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC394" s="0" t="n">
         <f aca="false">AB394*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40795,15 +40795,15 @@
         <v>1</v>
       </c>
       <c r="Z395" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB395" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC395" s="0" t="n">
         <f aca="false">AB395*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40884,15 +40884,15 @@
         <v>1</v>
       </c>
       <c r="Z396" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB396" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC396" s="0" t="n">
         <f aca="false">AB396*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40973,15 +40973,15 @@
         <v>1</v>
       </c>
       <c r="Z397" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB397" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC397" s="0" t="n">
         <f aca="false">AB397*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41062,15 +41062,15 @@
         <v>1</v>
       </c>
       <c r="Z398" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB398" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC398" s="0" t="n">
         <f aca="false">AB398*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41151,15 +41151,15 @@
         <v>1</v>
       </c>
       <c r="Z399" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB399" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC399" s="0" t="n">
         <f aca="false">AB399*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41240,15 +41240,15 @@
         <v>1</v>
       </c>
       <c r="Z400" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB400" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC400" s="0" t="n">
         <f aca="false">AB400*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41329,15 +41329,15 @@
         <v>1</v>
       </c>
       <c r="Z401" s="0" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="AB401" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC401" s="0" t="n">
         <f aca="false">AB401*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41418,15 +41418,15 @@
         <v>1</v>
       </c>
       <c r="Z402" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB402" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC402" s="0" t="n">
         <f aca="false">AB402*90</f>
-        <v>360</v>
+        <v>810</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41507,15 +41507,15 @@
         <v>1</v>
       </c>
       <c r="Z403" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB403" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC403" s="0" t="n">
         <f aca="false">AB403*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41596,15 +41596,15 @@
         <v>1</v>
       </c>
       <c r="Z404" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB404" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC404" s="0" t="n">
         <f aca="false">AB404*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41685,15 +41685,15 @@
         <v>1</v>
       </c>
       <c r="Z405" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB405" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC405" s="0" t="n">
         <f aca="false">AB405*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41774,15 +41774,15 @@
         <v>1</v>
       </c>
       <c r="Z406" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB406" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC406" s="0" t="n">
         <f aca="false">AB406*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41863,15 +41863,15 @@
         <v>1</v>
       </c>
       <c r="Z407" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB407" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC407" s="0" t="n">
         <f aca="false">AB407*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41952,15 +41952,15 @@
         <v>1</v>
       </c>
       <c r="Z408" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB408" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC408" s="0" t="n">
         <f aca="false">AB408*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42041,15 +42041,15 @@
         <v>1</v>
       </c>
       <c r="Z409" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB409" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC409" s="0" t="n">
         <f aca="false">AB409*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42130,15 +42130,15 @@
         <v>1</v>
       </c>
       <c r="Z410" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB410" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC410" s="0" t="n">
         <f aca="false">AB410*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42219,15 +42219,15 @@
         <v>1</v>
       </c>
       <c r="Z411" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB411" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC411" s="0" t="n">
         <f aca="false">AB411*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42308,15 +42308,15 @@
         <v>1</v>
       </c>
       <c r="Z412" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB412" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC412" s="0" t="n">
         <f aca="false">AB412*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42397,15 +42397,15 @@
         <v>1</v>
       </c>
       <c r="Z413" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB413" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC413" s="0" t="n">
         <f aca="false">AB413*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42486,15 +42486,15 @@
         <v>1</v>
       </c>
       <c r="Z414" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB414" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC414" s="0" t="n">
         <f aca="false">AB414*90</f>
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42575,15 +42575,15 @@
         <v>1</v>
       </c>
       <c r="Z415" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB415" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC415" s="0" t="n">
         <f aca="false">AB415*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42664,15 +42664,15 @@
         <v>1</v>
       </c>
       <c r="Z416" s="0" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB416" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC416" s="0" t="n">
         <f aca="false">AB416*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42753,15 +42753,15 @@
         <v>1</v>
       </c>
       <c r="Z417" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB417" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC417" s="0" t="n">
         <f aca="false">AB417*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42842,15 +42842,15 @@
         <v>1</v>
       </c>
       <c r="Z418" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB418" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC418" s="0" t="n">
         <f aca="false">AB418*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42931,15 +42931,15 @@
         <v>1</v>
       </c>
       <c r="Z419" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB419" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC419" s="0" t="n">
         <f aca="false">AB419*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43020,15 +43020,15 @@
         <v>1</v>
       </c>
       <c r="Z420" s="0" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AB420" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC420" s="0" t="n">
         <f aca="false">AB420*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43109,15 +43109,15 @@
         <v>1</v>
       </c>
       <c r="Z421" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB421" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC421" s="0" t="n">
         <f aca="false">AB421*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43198,15 +43198,15 @@
         <v>1</v>
       </c>
       <c r="Z422" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB422" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC422" s="0" t="n">
         <f aca="false">AB422*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43287,10 +43287,10 @@
         <v>1</v>
       </c>
       <c r="Z423" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB423" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC423" s="0" t="n">
@@ -43376,15 +43376,15 @@
         <v>1</v>
       </c>
       <c r="Z424" s="0" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB424" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC424" s="0" t="n">
         <f aca="false">AB424*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43465,15 +43465,15 @@
         <v>1</v>
       </c>
       <c r="Z425" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB425" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC425" s="0" t="n">
         <f aca="false">AB425*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43554,15 +43554,15 @@
         <v>1</v>
       </c>
       <c r="Z426" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB426" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC426" s="0" t="n">
         <f aca="false">AB426*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43643,15 +43643,15 @@
         <v>1</v>
       </c>
       <c r="Z427" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB427" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC427" s="0" t="n">
         <f aca="false">AB427*90</f>
-        <v>360</v>
+        <v>630</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43732,15 +43732,15 @@
         <v>1</v>
       </c>
       <c r="Z428" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB428" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC428" s="0" t="n">
         <f aca="false">AB428*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43821,15 +43821,15 @@
         <v>1</v>
       </c>
       <c r="Z429" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB429" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC429" s="0" t="n">
         <f aca="false">AB429*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43910,15 +43910,15 @@
         <v>1</v>
       </c>
       <c r="Z430" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB430" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC430" s="0" t="n">
         <f aca="false">AB430*90</f>
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43999,15 +43999,15 @@
         <v>1</v>
       </c>
       <c r="Z431" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB431" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC431" s="0" t="n">
         <f aca="false">AB431*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44088,15 +44088,15 @@
         <v>1</v>
       </c>
       <c r="Z432" s="0" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AB432" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC432" s="0" t="n">
         <f aca="false">AB432*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44177,15 +44177,15 @@
         <v>1</v>
       </c>
       <c r="Z433" s="0" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="AB433" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC433" s="0" t="n">
         <f aca="false">AB433*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44266,15 +44266,15 @@
         <v>1</v>
       </c>
       <c r="Z434" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB434" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC434" s="0" t="n">
         <f aca="false">AB434*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44358,7 +44358,7 @@
         <v>630</v>
       </c>
       <c r="AB435" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC435" s="0" t="n">
@@ -44447,12 +44447,12 @@
         <v>540</v>
       </c>
       <c r="AB436" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC436" s="0" t="n">
         <f aca="false">AB436*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44533,15 +44533,15 @@
         <v>1</v>
       </c>
       <c r="Z437" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB437" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC437" s="0" t="n">
         <f aca="false">AB437*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44622,15 +44622,15 @@
         <v>1</v>
       </c>
       <c r="Z438" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB438" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC438" s="0" t="n">
         <f aca="false">AB438*90</f>
-        <v>180</v>
+        <v>540</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44711,15 +44711,15 @@
         <v>1</v>
       </c>
       <c r="Z439" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB439" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC439" s="0" t="n">
         <f aca="false">AB439*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44800,15 +44800,15 @@
         <v>1</v>
       </c>
       <c r="Z440" s="0" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="AB440" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC440" s="0" t="n">
         <f aca="false">AB440*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44889,15 +44889,15 @@
         <v>1</v>
       </c>
       <c r="Z441" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AB441" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC441" s="0" t="n">
         <f aca="false">AB441*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44978,15 +44978,15 @@
         <v>1</v>
       </c>
       <c r="Z442" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB442" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC442" s="0" t="n">
         <f aca="false">AB442*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45067,15 +45067,15 @@
         <v>1</v>
       </c>
       <c r="Z443" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB443" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC443" s="0" t="n">
         <f aca="false">AB443*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45156,15 +45156,15 @@
         <v>1</v>
       </c>
       <c r="Z444" s="0" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AB444" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC444" s="0" t="n">
         <f aca="false">AB444*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45245,10 +45245,10 @@
         <v>1</v>
       </c>
       <c r="Z445" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB445" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC445" s="0" t="n">
@@ -45334,15 +45334,15 @@
         <v>1</v>
       </c>
       <c r="Z446" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB446" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC446" s="0" t="n">
         <f aca="false">AB446*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45423,15 +45423,15 @@
         <v>1</v>
       </c>
       <c r="Z447" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB447" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC447" s="0" t="n">
         <f aca="false">AB447*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45512,15 +45512,15 @@
         <v>1</v>
       </c>
       <c r="Z448" s="0" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="AB448" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC448" s="0" t="n">
         <f aca="false">AB448*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45601,15 +45601,15 @@
         <v>1</v>
       </c>
       <c r="Z449" s="0" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="AB449" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC449" s="0" t="n">
         <f aca="false">AB449*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45690,15 +45690,15 @@
         <v>1</v>
       </c>
       <c r="Z450" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB450" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC450" s="0" t="n">
         <f aca="false">AB450*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45779,10 +45779,10 @@
         <v>1</v>
       </c>
       <c r="Z451" s="0" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB451" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC451" s="0" t="n">
@@ -45868,15 +45868,15 @@
         <v>1</v>
       </c>
       <c r="Z452" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB452" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC452" s="0" t="n">
         <f aca="false">AB452*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45957,15 +45957,15 @@
         <v>1</v>
       </c>
       <c r="Z453" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB453" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC453" s="0" t="n">
         <f aca="false">AB453*90</f>
-        <v>450</v>
+        <v>810</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46046,15 +46046,15 @@
         <v>1</v>
       </c>
       <c r="Z454" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB454" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC454" s="0" t="n">
         <f aca="false">AB454*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46138,12 +46138,12 @@
         <v>630</v>
       </c>
       <c r="AB455" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC455" s="0" t="n">
         <f aca="false">AB455*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46224,10 +46224,10 @@
         <v>1</v>
       </c>
       <c r="Z456" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB456" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>8</v>
       </c>
       <c r="AC456" s="0" t="n">
@@ -46313,15 +46313,15 @@
         <v>1</v>
       </c>
       <c r="Z457" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB457" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC457" s="0" t="n">
         <f aca="false">AB457*90</f>
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46402,15 +46402,15 @@
         <v>1</v>
       </c>
       <c r="Z458" s="0" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AB458" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC458" s="0" t="n">
         <f aca="false">AB458*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46491,15 +46491,15 @@
         <v>1</v>
       </c>
       <c r="Z459" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB459" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC459" s="0" t="n">
         <f aca="false">AB459*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46580,15 +46580,15 @@
         <v>1</v>
       </c>
       <c r="Z460" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB460" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC460" s="0" t="n">
         <f aca="false">AB460*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46672,12 +46672,12 @@
         <v>450</v>
       </c>
       <c r="AB461" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC461" s="0" t="n">
         <f aca="false">AB461*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46758,15 +46758,15 @@
         <v>1</v>
       </c>
       <c r="Z462" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB462" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC462" s="0" t="n">
         <f aca="false">AB462*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46847,15 +46847,15 @@
         <v>1</v>
       </c>
       <c r="Z463" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB463" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC463" s="0" t="n">
         <f aca="false">AB463*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46936,15 +46936,15 @@
         <v>1</v>
       </c>
       <c r="Z464" s="0" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AB464" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC464" s="0" t="n">
         <f aca="false">AB464*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47025,15 +47025,15 @@
         <v>1</v>
       </c>
       <c r="Z465" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB465" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC465" s="0" t="n">
         <f aca="false">AB465*90</f>
-        <v>630</v>
+        <v>900</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47114,15 +47114,15 @@
         <v>1</v>
       </c>
       <c r="Z466" s="0" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="AB466" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC466" s="0" t="n">
         <f aca="false">AB466*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47203,15 +47203,15 @@
         <v>1</v>
       </c>
       <c r="Z467" s="0" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="AB467" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC467" s="0" t="n">
         <f aca="false">AB467*90</f>
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47292,15 +47292,15 @@
         <v>1</v>
       </c>
       <c r="Z468" s="0" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AB468" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC468" s="0" t="n">
         <f aca="false">AB468*90</f>
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47381,15 +47381,15 @@
         <v>1</v>
       </c>
       <c r="Z469" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB469" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC469" s="0" t="n">
         <f aca="false">AB469*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47470,15 +47470,15 @@
         <v>1</v>
       </c>
       <c r="Z470" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB470" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC470" s="0" t="n">
         <f aca="false">AB470*90</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47559,15 +47559,15 @@
         <v>1</v>
       </c>
       <c r="Z471" s="0" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AB471" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC471" s="0" t="n">
         <f aca="false">AB471*90</f>
-        <v>270</v>
+        <v>720</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47651,7 +47651,7 @@
         <v>540</v>
       </c>
       <c r="AB472" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>7</v>
       </c>
       <c r="AC472" s="0" t="n">
@@ -47737,15 +47737,15 @@
         <v>1</v>
       </c>
       <c r="Z473" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB473" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC473" s="0" t="n">
         <f aca="false">AB473*90</f>
-        <v>630</v>
+        <v>810</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47826,15 +47826,15 @@
         <v>1</v>
       </c>
       <c r="Z474" s="0" t="n">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="AB474" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>7</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC474" s="0" t="n">
         <f aca="false">AB474*90</f>
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47915,15 +47915,15 @@
         <v>1</v>
       </c>
       <c r="Z475" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB475" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC475" s="0" t="n">
         <f aca="false">AB475*90</f>
-        <v>270</v>
+        <v>630</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48004,15 +48004,15 @@
         <v>1</v>
       </c>
       <c r="Z476" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB476" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC476" s="0" t="n">
         <f aca="false">AB476*90</f>
-        <v>360</v>
+        <v>630</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48093,15 +48093,15 @@
         <v>1</v>
       </c>
       <c r="Z477" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB477" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC477" s="0" t="n">
         <f aca="false">AB477*90</f>
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48182,15 +48182,15 @@
         <v>1</v>
       </c>
       <c r="Z478" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB478" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC478" s="0" t="n">
         <f aca="false">AB478*90</f>
-        <v>540</v>
+        <v>450</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48271,15 +48271,15 @@
         <v>1</v>
       </c>
       <c r="Z479" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB479" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC479" s="0" t="n">
         <f aca="false">AB479*90</f>
-        <v>180</v>
+        <v>810</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48360,15 +48360,15 @@
         <v>1</v>
       </c>
       <c r="Z480" s="0" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="AB480" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC480" s="0" t="n">
         <f aca="false">AB480*90</f>
-        <v>270</v>
+        <v>810</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48452,12 +48452,12 @@
         <v>630</v>
       </c>
       <c r="AB481" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC481" s="0" t="n">
         <f aca="false">AB481*90</f>
-        <v>720</v>
+        <v>450</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48538,15 +48538,15 @@
         <v>1</v>
       </c>
       <c r="Z482" s="0" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AB482" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC482" s="0" t="n">
         <f aca="false">AB482*90</f>
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48627,15 +48627,15 @@
         <v>1</v>
       </c>
       <c r="Z483" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB483" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC483" s="0" t="n">
         <f aca="false">AB483*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48716,15 +48716,15 @@
         <v>1</v>
       </c>
       <c r="Z484" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB484" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC484" s="0" t="n">
         <f aca="false">AB484*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48805,15 +48805,15 @@
         <v>1</v>
       </c>
       <c r="Z485" s="0" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="AB485" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC485" s="0" t="n">
         <f aca="false">AB485*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48894,15 +48894,15 @@
         <v>1</v>
       </c>
       <c r="Z486" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB486" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC486" s="0" t="n">
         <f aca="false">AB486*90</f>
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48983,15 +48983,15 @@
         <v>1</v>
       </c>
       <c r="Z487" s="0" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AB487" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC487" s="0" t="n">
         <f aca="false">AB487*90</f>
-        <v>270</v>
+        <v>900</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49072,15 +49072,15 @@
         <v>1</v>
       </c>
       <c r="Z488" s="0" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="AB488" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC488" s="0" t="n">
         <f aca="false">AB488*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49161,15 +49161,15 @@
         <v>1</v>
       </c>
       <c r="Z489" s="0" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="AB489" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC489" s="0" t="n">
         <f aca="false">AB489*90</f>
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49250,15 +49250,15 @@
         <v>1</v>
       </c>
       <c r="Z490" s="0" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="AB490" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC490" s="0" t="n">
         <f aca="false">AB490*90</f>
-        <v>360</v>
+        <v>630</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49342,12 +49342,12 @@
         <v>630</v>
       </c>
       <c r="AB491" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC491" s="0" t="n">
         <f aca="false">AB491*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49431,12 +49431,12 @@
         <v>450</v>
       </c>
       <c r="AB492" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
       <c r="AC492" s="0" t="n">
         <f aca="false">AB492*90</f>
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49517,15 +49517,15 @@
         <v>1</v>
       </c>
       <c r="Z493" s="0" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="AB493" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>2</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC493" s="0" t="n">
         <f aca="false">AB493*90</f>
-        <v>180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49606,10 +49606,10 @@
         <v>1</v>
       </c>
       <c r="Z494" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB494" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>5</v>
       </c>
       <c r="AC494" s="0" t="n">
@@ -49695,15 +49695,15 @@
         <v>1</v>
       </c>
       <c r="Z495" s="0" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="AB495" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC495" s="0" t="n">
         <f aca="false">AB495*90</f>
-        <v>720</v>
+        <v>540</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49784,15 +49784,15 @@
         <v>1</v>
       </c>
       <c r="Z496" s="0" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="AB496" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC496" s="0" t="n">
         <f aca="false">AB496*90</f>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49873,15 +49873,15 @@
         <v>1</v>
       </c>
       <c r="Z497" s="0" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="AB497" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC497" s="0" t="n">
         <f aca="false">AB497*90</f>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49962,15 +49962,15 @@
         <v>1</v>
       </c>
       <c r="Z498" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB498" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC498" s="0" t="n">
         <f aca="false">AB498*90</f>
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50051,10 +50051,10 @@
         <v>1</v>
       </c>
       <c r="Z499" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB499" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
+        <f aca="false">RANDBETWEEN(5,10)</f>
         <v>6</v>
       </c>
       <c r="AC499" s="0" t="n">
@@ -50140,15 +50140,15 @@
         <v>1</v>
       </c>
       <c r="Z500" s="0" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="AB500" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC500" s="0" t="n">
         <f aca="false">AB500*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50229,15 +50229,15 @@
         <v>1</v>
       </c>
       <c r="Z501" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AB501" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC501" s="0" t="n">
         <f aca="false">AB501*90</f>
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50318,15 +50318,15 @@
         <v>1</v>
       </c>
       <c r="Z502" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB502" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>6</v>
       </c>
       <c r="AC502" s="0" t="n">
         <f aca="false">AB502*90</f>
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50407,15 +50407,15 @@
         <v>1</v>
       </c>
       <c r="Z503" s="0" t="n">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="AB503" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>3</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>5</v>
       </c>
       <c r="AC503" s="0" t="n">
         <f aca="false">AB503*90</f>
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50496,15 +50496,15 @@
         <v>1</v>
       </c>
       <c r="Z504" s="0" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AB504" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>9</v>
       </c>
       <c r="AC504" s="0" t="n">
         <f aca="false">AB504*90</f>
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50585,15 +50585,15 @@
         <v>1</v>
       </c>
       <c r="Z505" s="0" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AB505" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>8</v>
       </c>
       <c r="AC505" s="0" t="n">
         <f aca="false">AB505*90</f>
-        <v>360</v>
+        <v>720</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50677,12 +50677,12 @@
         <v>720</v>
       </c>
       <c r="AB506" s="0" t="n">
-        <f aca="false">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <f aca="false">RANDBETWEEN(5,10)</f>
+        <v>10</v>
       </c>
       <c r="AC506" s="0" t="n">
         <f aca="false">AB506*90</f>
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
